--- a/INSCRIÇÕES - PS.TRADICIONAL - 1ª CHAMADA.xlsx
+++ b/INSCRIÇÕES - PS.TRADICIONAL - 1ª CHAMADA.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="8">
   <si>
     <t xml:space="preserve">inscrição</t>
   </si>
@@ -130,7 +130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,6 +171,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -191,7 +195,7 @@
   <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D380:D381 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10878,10 +10882,10 @@
   <dimension ref="A1:C380"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="D380:D381 C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.71"/>
   </cols>
@@ -10893,8 +10897,9 @@
       <c r="B1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>7</v>
+      <c r="C1" s="0" t="str">
+        <f aca="false">CONCATENATE(A1,";",0)</f>
+        <v>116544;0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10904,8 +10909,9 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
+      <c r="C2" s="0" t="str">
+        <f aca="false">CONCATENATE(A2,";",0)</f>
+        <v>115549;0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10915,8 +10921,9 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
+      <c r="C3" s="0" t="str">
+        <f aca="false">CONCATENATE(A3,";",0)</f>
+        <v>118365;0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10926,8 +10933,9 @@
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
+      <c r="C4" s="0" t="str">
+        <f aca="false">CONCATENATE(A4,";",0)</f>
+        <v>116842;0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10937,8 +10945,9 @@
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
+      <c r="C5" s="0" t="str">
+        <f aca="false">CONCATENATE(A5,";",0)</f>
+        <v>114449;0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10948,8 +10957,9 @@
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
+      <c r="C6" s="0" t="str">
+        <f aca="false">CONCATENATE(A6,";",0)</f>
+        <v>117141;0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10959,8 +10969,9 @@
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
+      <c r="C7" s="0" t="str">
+        <f aca="false">CONCATENATE(A7,";",0)</f>
+        <v>115639;0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10970,8 +10981,9 @@
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>7</v>
+      <c r="C8" s="0" t="str">
+        <f aca="false">CONCATENATE(A8,";",0)</f>
+        <v>114273;0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10981,8 +10993,9 @@
       <c r="B9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
+      <c r="C9" s="0" t="str">
+        <f aca="false">CONCATENATE(A9,";",0)</f>
+        <v>114279;0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10992,8 +11005,9 @@
       <c r="B10" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
+      <c r="C10" s="0" t="str">
+        <f aca="false">CONCATENATE(A10,";",0)</f>
+        <v>116958;0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11003,8 +11017,9 @@
       <c r="B11" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>7</v>
+      <c r="C11" s="0" t="str">
+        <f aca="false">CONCATENATE(A11,";",0)</f>
+        <v>115167;0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11014,8 +11029,9 @@
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
+      <c r="C12" s="0" t="str">
+        <f aca="false">CONCATENATE(A12,";",0)</f>
+        <v>114693;0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11025,8 +11041,9 @@
       <c r="B13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>7</v>
+      <c r="C13" s="0" t="str">
+        <f aca="false">CONCATENATE(A13,";",0)</f>
+        <v>116849;0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11036,8 +11053,9 @@
       <c r="B14" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>7</v>
+      <c r="C14" s="0" t="str">
+        <f aca="false">CONCATENATE(A14,";",0)</f>
+        <v>114244;0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11047,8 +11065,9 @@
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>7</v>
+      <c r="C15" s="0" t="str">
+        <f aca="false">CONCATENATE(A15,";",0)</f>
+        <v>116361;0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11058,8 +11077,9 @@
       <c r="B16" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>7</v>
+      <c r="C16" s="0" t="str">
+        <f aca="false">CONCATENATE(A16,";",0)</f>
+        <v>118150;0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11069,8 +11089,9 @@
       <c r="B17" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>7</v>
+      <c r="C17" s="0" t="str">
+        <f aca="false">CONCATENATE(A17,";",0)</f>
+        <v>120850;0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11080,8 +11101,9 @@
       <c r="B18" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
+      <c r="C18" s="0" t="str">
+        <f aca="false">CONCATENATE(A18,";",0)</f>
+        <v>118544;0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11091,8 +11113,9 @@
       <c r="B19" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>7</v>
+      <c r="C19" s="0" t="str">
+        <f aca="false">CONCATENATE(A19,";",0)</f>
+        <v>115083;0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11102,8 +11125,9 @@
       <c r="B20" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>7</v>
+      <c r="C20" s="0" t="str">
+        <f aca="false">CONCATENATE(A20,";",0)</f>
+        <v>116883;0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11113,8 +11137,9 @@
       <c r="B21" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>7</v>
+      <c r="C21" s="0" t="str">
+        <f aca="false">CONCATENATE(A21,";",0)</f>
+        <v>115484;0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11124,8 +11149,9 @@
       <c r="B22" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>7</v>
+      <c r="C22" s="0" t="str">
+        <f aca="false">CONCATENATE(A22,";",0)</f>
+        <v>120878;0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11135,8 +11161,9 @@
       <c r="B23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>7</v>
+      <c r="C23" s="0" t="str">
+        <f aca="false">CONCATENATE(A23,";",0)</f>
+        <v>115112;0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11146,8 +11173,9 @@
       <c r="B24" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>7</v>
+      <c r="C24" s="0" t="str">
+        <f aca="false">CONCATENATE(A24,";",0)</f>
+        <v>115198;0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11157,8 +11185,9 @@
       <c r="B25" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>7</v>
+      <c r="C25" s="0" t="str">
+        <f aca="false">CONCATENATE(A25,";",0)</f>
+        <v>115232;0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11168,8 +11197,9 @@
       <c r="B26" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>7</v>
+      <c r="C26" s="0" t="str">
+        <f aca="false">CONCATENATE(A26,";",0)</f>
+        <v>118207;0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11179,8 +11209,9 @@
       <c r="B27" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>7</v>
+      <c r="C27" s="0" t="str">
+        <f aca="false">CONCATENATE(A27,";",0)</f>
+        <v>117245;0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11190,8 +11221,9 @@
       <c r="B28" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>7</v>
+      <c r="C28" s="0" t="str">
+        <f aca="false">CONCATENATE(A28,";",0)</f>
+        <v>115652;0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11201,8 +11233,9 @@
       <c r="B29" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>7</v>
+      <c r="C29" s="0" t="str">
+        <f aca="false">CONCATENATE(A29,";",0)</f>
+        <v>116894;0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11212,8 +11245,9 @@
       <c r="B30" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>7</v>
+      <c r="C30" s="0" t="str">
+        <f aca="false">CONCATENATE(A30,";",0)</f>
+        <v>115755;0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11223,8 +11257,9 @@
       <c r="B31" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>7</v>
+      <c r="C31" s="0" t="str">
+        <f aca="false">CONCATENATE(A31,";",0)</f>
+        <v>118501;0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11234,8 +11269,9 @@
       <c r="B32" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>7</v>
+      <c r="C32" s="0" t="str">
+        <f aca="false">CONCATENATE(A32,";",0)</f>
+        <v>115483;0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11245,8 +11281,9 @@
       <c r="B33" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>7</v>
+      <c r="C33" s="0" t="str">
+        <f aca="false">CONCATENATE(A33,";",0)</f>
+        <v>114805;0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11256,8 +11293,9 @@
       <c r="B34" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>7</v>
+      <c r="C34" s="0" t="str">
+        <f aca="false">CONCATENATE(A34,";",0)</f>
+        <v>115386;0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11267,8 +11305,9 @@
       <c r="B35" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>7</v>
+      <c r="C35" s="0" t="str">
+        <f aca="false">CONCATENATE(A35,";",0)</f>
+        <v>115266;0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11278,8 +11317,9 @@
       <c r="B36" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>7</v>
+      <c r="C36" s="0" t="str">
+        <f aca="false">CONCATENATE(A36,";",0)</f>
+        <v>115946;0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11289,8 +11329,9 @@
       <c r="B37" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>7</v>
+      <c r="C37" s="0" t="str">
+        <f aca="false">CONCATENATE(A37,";",0)</f>
+        <v>117428;0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11300,8 +11341,9 @@
       <c r="B38" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>7</v>
+      <c r="C38" s="0" t="str">
+        <f aca="false">CONCATENATE(A38,";",0)</f>
+        <v>117412;0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11311,8 +11353,9 @@
       <c r="B39" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>7</v>
+      <c r="C39" s="0" t="str">
+        <f aca="false">CONCATENATE(A39,";",0)</f>
+        <v>118455;0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11322,8 +11365,9 @@
       <c r="B40" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>7</v>
+      <c r="C40" s="0" t="str">
+        <f aca="false">CONCATENATE(A40,";",0)</f>
+        <v>118575;0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11333,8 +11377,9 @@
       <c r="B41" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>7</v>
+      <c r="C41" s="0" t="str">
+        <f aca="false">CONCATENATE(A41,";",0)</f>
+        <v>118340;0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11344,8 +11389,9 @@
       <c r="B42" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>7</v>
+      <c r="C42" s="0" t="str">
+        <f aca="false">CONCATENATE(A42,";",0)</f>
+        <v>118175;0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11355,8 +11401,9 @@
       <c r="B43" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>7</v>
+      <c r="C43" s="0" t="str">
+        <f aca="false">CONCATENATE(A43,";",0)</f>
+        <v>118472;0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11366,8 +11413,9 @@
       <c r="B44" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>7</v>
+      <c r="C44" s="0" t="str">
+        <f aca="false">CONCATENATE(A44,";",0)</f>
+        <v>115146;0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11377,8 +11425,9 @@
       <c r="B45" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>7</v>
+      <c r="C45" s="0" t="str">
+        <f aca="false">CONCATENATE(A45,";",0)</f>
+        <v>116955;0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11388,8 +11437,9 @@
       <c r="B46" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>7</v>
+      <c r="C46" s="0" t="str">
+        <f aca="false">CONCATENATE(A46,";",0)</f>
+        <v>114703;0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11399,8 +11449,9 @@
       <c r="B47" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>7</v>
+      <c r="C47" s="0" t="str">
+        <f aca="false">CONCATENATE(A47,";",0)</f>
+        <v>114373;0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11410,8 +11461,9 @@
       <c r="B48" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>7</v>
+      <c r="C48" s="0" t="str">
+        <f aca="false">CONCATENATE(A48,";",0)</f>
+        <v>118228;0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11421,8 +11473,9 @@
       <c r="B49" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>7</v>
+      <c r="C49" s="0" t="str">
+        <f aca="false">CONCATENATE(A49,";",0)</f>
+        <v>114875;0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11432,8 +11485,9 @@
       <c r="B50" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>7</v>
+      <c r="C50" s="0" t="str">
+        <f aca="false">CONCATENATE(A50,";",0)</f>
+        <v>114144;0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11443,8 +11497,9 @@
       <c r="B51" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>7</v>
+      <c r="C51" s="0" t="str">
+        <f aca="false">CONCATENATE(A51,";",0)</f>
+        <v>118075;0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11454,8 +11509,9 @@
       <c r="B52" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>7</v>
+      <c r="C52" s="0" t="str">
+        <f aca="false">CONCATENATE(A52,";",0)</f>
+        <v>119751;0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11465,8 +11521,9 @@
       <c r="B53" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>7</v>
+      <c r="C53" s="0" t="str">
+        <f aca="false">CONCATENATE(A53,";",0)</f>
+        <v>118273;0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11476,8 +11533,9 @@
       <c r="B54" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>7</v>
+      <c r="C54" s="0" t="str">
+        <f aca="false">CONCATENATE(A54,";",0)</f>
+        <v>118490;0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11487,8 +11545,9 @@
       <c r="B55" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>7</v>
+      <c r="C55" s="0" t="str">
+        <f aca="false">CONCATENATE(A55,";",0)</f>
+        <v>116873;0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11498,8 +11557,9 @@
       <c r="B56" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>7</v>
+      <c r="C56" s="0" t="str">
+        <f aca="false">CONCATENATE(A56,";",0)</f>
+        <v>116748;0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11509,8 +11569,9 @@
       <c r="B57" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>7</v>
+      <c r="C57" s="0" t="str">
+        <f aca="false">CONCATENATE(A57,";",0)</f>
+        <v>113770;0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11520,8 +11581,9 @@
       <c r="B58" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>7</v>
+      <c r="C58" s="0" t="str">
+        <f aca="false">CONCATENATE(A58,";",0)</f>
+        <v>113959;0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11531,8 +11593,9 @@
       <c r="B59" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>7</v>
+      <c r="C59" s="0" t="str">
+        <f aca="false">CONCATENATE(A59,";",0)</f>
+        <v>113667;0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11542,8 +11605,9 @@
       <c r="B60" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>7</v>
+      <c r="C60" s="0" t="str">
+        <f aca="false">CONCATENATE(A60,";",0)</f>
+        <v>113881;0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11553,8 +11617,9 @@
       <c r="B61" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>7</v>
+      <c r="C61" s="0" t="str">
+        <f aca="false">CONCATENATE(A61,";",0)</f>
+        <v>116023;0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11564,8 +11629,9 @@
       <c r="B62" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>7</v>
+      <c r="C62" s="0" t="str">
+        <f aca="false">CONCATENATE(A62,";",0)</f>
+        <v>117818;0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11575,8 +11641,9 @@
       <c r="B63" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>7</v>
+      <c r="C63" s="0" t="str">
+        <f aca="false">CONCATENATE(A63,";",0)</f>
+        <v>114894;0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11586,8 +11653,9 @@
       <c r="B64" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>7</v>
+      <c r="C64" s="0" t="str">
+        <f aca="false">CONCATENATE(A64,";",0)</f>
+        <v>117779;0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11597,8 +11665,9 @@
       <c r="B65" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>7</v>
+      <c r="C65" s="0" t="str">
+        <f aca="false">CONCATENATE(A65,";",0)</f>
+        <v>116176;0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11608,8 +11677,9 @@
       <c r="B66" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>7</v>
+      <c r="C66" s="0" t="str">
+        <f aca="false">CONCATENATE(A66,";",0)</f>
+        <v>117866;0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11619,8 +11689,9 @@
       <c r="B67" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>7</v>
+      <c r="C67" s="0" t="str">
+        <f aca="false">CONCATENATE(A67,";",0)</f>
+        <v>117643;0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11630,8 +11701,9 @@
       <c r="B68" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>7</v>
+      <c r="C68" s="0" t="str">
+        <f aca="false">CONCATENATE(A68,";",0)</f>
+        <v>115597;0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11641,8 +11713,9 @@
       <c r="B69" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>7</v>
+      <c r="C69" s="0" t="str">
+        <f aca="false">CONCATENATE(A69,";",0)</f>
+        <v>118008;0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11652,8 +11725,9 @@
       <c r="B70" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>7</v>
+      <c r="C70" s="0" t="str">
+        <f aca="false">CONCATENATE(A70,";",0)</f>
+        <v>118546;0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11663,8 +11737,9 @@
       <c r="B71" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>7</v>
+      <c r="C71" s="0" t="str">
+        <f aca="false">CONCATENATE(A71,";",0)</f>
+        <v>116914;0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11674,8 +11749,9 @@
       <c r="B72" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>7</v>
+      <c r="C72" s="0" t="str">
+        <f aca="false">CONCATENATE(A72,";",0)</f>
+        <v>114056;0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11685,8 +11761,9 @@
       <c r="B73" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>7</v>
+      <c r="C73" s="0" t="str">
+        <f aca="false">CONCATENATE(A73,";",0)</f>
+        <v>116128;0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11696,8 +11773,9 @@
       <c r="B74" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>7</v>
+      <c r="C74" s="0" t="str">
+        <f aca="false">CONCATENATE(A74,";",0)</f>
+        <v>117858;0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11707,8 +11785,9 @@
       <c r="B75" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>7</v>
+      <c r="C75" s="0" t="str">
+        <f aca="false">CONCATENATE(A75,";",0)</f>
+        <v>117892;0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11718,8 +11797,9 @@
       <c r="B76" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>7</v>
+      <c r="C76" s="0" t="str">
+        <f aca="false">CONCATENATE(A76,";",0)</f>
+        <v>115381;0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11729,8 +11809,9 @@
       <c r="B77" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>7</v>
+      <c r="C77" s="0" t="str">
+        <f aca="false">CONCATENATE(A77,";",0)</f>
+        <v>117394;0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11740,8 +11821,9 @@
       <c r="B78" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>7</v>
+      <c r="C78" s="0" t="str">
+        <f aca="false">CONCATENATE(A78,";",0)</f>
+        <v>115485;0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11751,8 +11833,9 @@
       <c r="B79" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>7</v>
+      <c r="C79" s="0" t="str">
+        <f aca="false">CONCATENATE(A79,";",0)</f>
+        <v>119731;0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11762,8 +11845,9 @@
       <c r="B80" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>7</v>
+      <c r="C80" s="0" t="str">
+        <f aca="false">CONCATENATE(A80,";",0)</f>
+        <v>120844;0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11773,8 +11857,9 @@
       <c r="B81" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>7</v>
+      <c r="C81" s="0" t="str">
+        <f aca="false">CONCATENATE(A81,";",0)</f>
+        <v>118345;0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11784,8 +11869,9 @@
       <c r="B82" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>7</v>
+      <c r="C82" s="0" t="str">
+        <f aca="false">CONCATENATE(A82,";",0)</f>
+        <v>120911;0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11795,8 +11881,9 @@
       <c r="B83" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>7</v>
+      <c r="C83" s="0" t="str">
+        <f aca="false">CONCATENATE(A83,";",0)</f>
+        <v>116693;0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11806,8 +11893,9 @@
       <c r="B84" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>7</v>
+      <c r="C84" s="0" t="str">
+        <f aca="false">CONCATENATE(A84,";",0)</f>
+        <v>117236;0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11817,8 +11905,9 @@
       <c r="B85" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>7</v>
+      <c r="C85" s="0" t="str">
+        <f aca="false">CONCATENATE(A85,";",0)</f>
+        <v>117922;0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11828,8 +11917,9 @@
       <c r="B86" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>7</v>
+      <c r="C86" s="0" t="str">
+        <f aca="false">CONCATENATE(A86,";",0)</f>
+        <v>114843;0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11839,8 +11929,9 @@
       <c r="B87" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>7</v>
+      <c r="C87" s="0" t="str">
+        <f aca="false">CONCATENATE(A87,";",0)</f>
+        <v>117355;0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11850,8 +11941,9 @@
       <c r="B88" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>7</v>
+      <c r="C88" s="0" t="str">
+        <f aca="false">CONCATENATE(A88,";",0)</f>
+        <v>118674;0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11861,8 +11953,9 @@
       <c r="B89" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>7</v>
+      <c r="C89" s="0" t="str">
+        <f aca="false">CONCATENATE(A89,";",0)</f>
+        <v>114761;0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11872,8 +11965,9 @@
       <c r="B90" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>7</v>
+      <c r="C90" s="0" t="str">
+        <f aca="false">CONCATENATE(A90,";",0)</f>
+        <v>113903;0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11883,8 +11977,9 @@
       <c r="B91" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>7</v>
+      <c r="C91" s="0" t="str">
+        <f aca="false">CONCATENATE(A91,";",0)</f>
+        <v>115084;0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11894,8 +11989,9 @@
       <c r="B92" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="0" t="s">
-        <v>7</v>
+      <c r="C92" s="0" t="str">
+        <f aca="false">CONCATENATE(A92,";",0)</f>
+        <v>118505;0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11905,8 +12001,9 @@
       <c r="B93" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>7</v>
+      <c r="C93" s="0" t="str">
+        <f aca="false">CONCATENATE(A93,";",0)</f>
+        <v>115649;0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11916,8 +12013,9 @@
       <c r="B94" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>7</v>
+      <c r="C94" s="0" t="str">
+        <f aca="false">CONCATENATE(A94,";",0)</f>
+        <v>116366;0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11927,8 +12025,9 @@
       <c r="B95" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>7</v>
+      <c r="C95" s="0" t="str">
+        <f aca="false">CONCATENATE(A95,";",0)</f>
+        <v>118124;0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11938,8 +12037,9 @@
       <c r="B96" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>7</v>
+      <c r="C96" s="0" t="str">
+        <f aca="false">CONCATENATE(A96,";",0)</f>
+        <v>117172;0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11949,8 +12049,9 @@
       <c r="B97" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>7</v>
+      <c r="C97" s="0" t="str">
+        <f aca="false">CONCATENATE(A97,";",0)</f>
+        <v>113998;0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11960,8 +12061,9 @@
       <c r="B98" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>7</v>
+      <c r="C98" s="0" t="str">
+        <f aca="false">CONCATENATE(A98,";",0)</f>
+        <v>117398;0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11971,8 +12073,9 @@
       <c r="B99" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>7</v>
+      <c r="C99" s="0" t="str">
+        <f aca="false">CONCATENATE(A99,";",0)</f>
+        <v>114098;0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11982,8 +12085,9 @@
       <c r="B100" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>7</v>
+      <c r="C100" s="0" t="str">
+        <f aca="false">CONCATENATE(A100,";",0)</f>
+        <v>117138;0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11993,8 +12097,9 @@
       <c r="B101" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>7</v>
+      <c r="C101" s="0" t="str">
+        <f aca="false">CONCATENATE(A101,";",0)</f>
+        <v>117258;0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12004,8 +12109,9 @@
       <c r="B102" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>7</v>
+      <c r="C102" s="0" t="str">
+        <f aca="false">CONCATENATE(A102,";",0)</f>
+        <v>116956;0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12015,8 +12121,9 @@
       <c r="B103" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>7</v>
+      <c r="C103" s="0" t="str">
+        <f aca="false">CONCATENATE(A103,";",0)</f>
+        <v>117776;0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12026,8 +12133,9 @@
       <c r="B104" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>7</v>
+      <c r="C104" s="0" t="str">
+        <f aca="false">CONCATENATE(A104,";",0)</f>
+        <v>115314;0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12037,8 +12145,9 @@
       <c r="B105" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>7</v>
+      <c r="C105" s="0" t="str">
+        <f aca="false">CONCATENATE(A105,";",0)</f>
+        <v>117237;0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12048,8 +12157,9 @@
       <c r="B106" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="0" t="s">
-        <v>7</v>
+      <c r="C106" s="0" t="str">
+        <f aca="false">CONCATENATE(A106,";",0)</f>
+        <v>117268;0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12059,8 +12169,9 @@
       <c r="B107" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="0" t="s">
-        <v>7</v>
+      <c r="C107" s="0" t="str">
+        <f aca="false">CONCATENATE(A107,";",0)</f>
+        <v>117368;0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12070,8 +12181,9 @@
       <c r="B108" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="0" t="s">
-        <v>7</v>
+      <c r="C108" s="0" t="str">
+        <f aca="false">CONCATENATE(A108,";",0)</f>
+        <v>117980;0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12081,8 +12193,9 @@
       <c r="B109" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="0" t="s">
-        <v>7</v>
+      <c r="C109" s="0" t="str">
+        <f aca="false">CONCATENATE(A109,";",0)</f>
+        <v>115525;0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12092,8 +12205,9 @@
       <c r="B110" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="0" t="s">
-        <v>7</v>
+      <c r="C110" s="0" t="str">
+        <f aca="false">CONCATENATE(A110,";",0)</f>
+        <v>117562;0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12103,8 +12217,9 @@
       <c r="B111" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="0" t="s">
-        <v>7</v>
+      <c r="C111" s="0" t="str">
+        <f aca="false">CONCATENATE(A111,";",0)</f>
+        <v>116779;0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12114,8 +12229,9 @@
       <c r="B112" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="0" t="s">
-        <v>7</v>
+      <c r="C112" s="0" t="str">
+        <f aca="false">CONCATENATE(A112,";",0)</f>
+        <v>115850;0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12125,8 +12241,9 @@
       <c r="B113" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="0" t="s">
-        <v>7</v>
+      <c r="C113" s="0" t="str">
+        <f aca="false">CONCATENATE(A113,";",0)</f>
+        <v>116808;0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12136,8 +12253,9 @@
       <c r="B114" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C114" s="0" t="s">
-        <v>7</v>
+      <c r="C114" s="0" t="str">
+        <f aca="false">CONCATENATE(A114,";",0)</f>
+        <v>119692;0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12147,8 +12265,9 @@
       <c r="B115" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="0" t="s">
-        <v>7</v>
+      <c r="C115" s="0" t="str">
+        <f aca="false">CONCATENATE(A115,";",0)</f>
+        <v>115808;0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12158,8 +12277,9 @@
       <c r="B116" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C116" s="0" t="s">
-        <v>7</v>
+      <c r="C116" s="0" t="str">
+        <f aca="false">CONCATENATE(A116,";",0)</f>
+        <v>113761;0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12169,8 +12289,9 @@
       <c r="B117" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="0" t="s">
-        <v>7</v>
+      <c r="C117" s="0" t="str">
+        <f aca="false">CONCATENATE(A117,";",0)</f>
+        <v>114742;0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12180,8 +12301,9 @@
       <c r="B118" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>7</v>
+      <c r="C118" s="0" t="str">
+        <f aca="false">CONCATENATE(A118,";",0)</f>
+        <v>115924;0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12191,8 +12313,9 @@
       <c r="B119" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="0" t="s">
-        <v>7</v>
+      <c r="C119" s="0" t="str">
+        <f aca="false">CONCATENATE(A119,";",0)</f>
+        <v>113756;0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12202,8 +12325,9 @@
       <c r="B120" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="0" t="s">
-        <v>7</v>
+      <c r="C120" s="0" t="str">
+        <f aca="false">CONCATENATE(A120,";",0)</f>
+        <v>116949;0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12213,8 +12337,9 @@
       <c r="B121" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>7</v>
+      <c r="C121" s="0" t="str">
+        <f aca="false">CONCATENATE(A121,";",0)</f>
+        <v>115760;0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12224,8 +12349,9 @@
       <c r="B122" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>7</v>
+      <c r="C122" s="0" t="str">
+        <f aca="false">CONCATENATE(A122,";",0)</f>
+        <v>117125;0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12235,8 +12361,9 @@
       <c r="B123" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="0" t="s">
-        <v>7</v>
+      <c r="C123" s="0" t="str">
+        <f aca="false">CONCATENATE(A123,";",0)</f>
+        <v>118400;0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12246,8 +12373,9 @@
       <c r="B124" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="0" t="s">
-        <v>7</v>
+      <c r="C124" s="0" t="str">
+        <f aca="false">CONCATENATE(A124,";",0)</f>
+        <v>116533;0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12257,8 +12385,9 @@
       <c r="B125" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="0" t="s">
-        <v>7</v>
+      <c r="C125" s="0" t="str">
+        <f aca="false">CONCATENATE(A125,";",0)</f>
+        <v>116609;0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12268,8 +12397,9 @@
       <c r="B126" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="0" t="s">
-        <v>7</v>
+      <c r="C126" s="0" t="str">
+        <f aca="false">CONCATENATE(A126,";",0)</f>
+        <v>118074;0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12279,8 +12409,9 @@
       <c r="B127" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="0" t="s">
-        <v>7</v>
+      <c r="C127" s="0" t="str">
+        <f aca="false">CONCATENATE(A127,";",0)</f>
+        <v>116531;0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12290,8 +12421,9 @@
       <c r="B128" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>7</v>
+      <c r="C128" s="0" t="str">
+        <f aca="false">CONCATENATE(A128,";",0)</f>
+        <v>117908;0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12301,8 +12433,9 @@
       <c r="B129" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C129" s="0" t="s">
-        <v>7</v>
+      <c r="C129" s="0" t="str">
+        <f aca="false">CONCATENATE(A129,";",0)</f>
+        <v>115306;0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12312,8 +12445,9 @@
       <c r="B130" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="0" t="s">
-        <v>7</v>
+      <c r="C130" s="0" t="str">
+        <f aca="false">CONCATENATE(A130,";",0)</f>
+        <v>118443;0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12323,8 +12457,9 @@
       <c r="B131" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>7</v>
+      <c r="C131" s="0" t="str">
+        <f aca="false">CONCATENATE(A131,";",0)</f>
+        <v>115368;0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12334,8 +12469,9 @@
       <c r="B132" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="0" t="s">
-        <v>7</v>
+      <c r="C132" s="0" t="str">
+        <f aca="false">CONCATENATE(A132,";",0)</f>
+        <v>116780;0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12345,8 +12481,9 @@
       <c r="B133" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C133" s="0" t="s">
-        <v>7</v>
+      <c r="C133" s="0" t="str">
+        <f aca="false">CONCATENATE(A133,";",0)</f>
+        <v>116393;0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12356,8 +12493,9 @@
       <c r="B134" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C134" s="0" t="s">
-        <v>7</v>
+      <c r="C134" s="0" t="str">
+        <f aca="false">CONCATENATE(A134,";",0)</f>
+        <v>114226;0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12367,8 +12505,9 @@
       <c r="B135" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C135" s="0" t="s">
-        <v>7</v>
+      <c r="C135" s="0" t="str">
+        <f aca="false">CONCATENATE(A135,";",0)</f>
+        <v>115527;0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12378,8 +12517,9 @@
       <c r="B136" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>7</v>
+      <c r="C136" s="0" t="str">
+        <f aca="false">CONCATENATE(A136,";",0)</f>
+        <v>117249;0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12389,8 +12529,9 @@
       <c r="B137" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="0" t="s">
-        <v>7</v>
+      <c r="C137" s="0" t="str">
+        <f aca="false">CONCATENATE(A137,";",0)</f>
+        <v>114991;0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12400,8 +12541,9 @@
       <c r="B138" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="0" t="s">
-        <v>7</v>
+      <c r="C138" s="0" t="str">
+        <f aca="false">CONCATENATE(A138,";",0)</f>
+        <v>118211;0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12411,8 +12553,9 @@
       <c r="B139" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="0" t="s">
-        <v>7</v>
+      <c r="C139" s="0" t="str">
+        <f aca="false">CONCATENATE(A139,";",0)</f>
+        <v>116396;0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12422,8 +12565,9 @@
       <c r="B140" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="0" t="s">
-        <v>7</v>
+      <c r="C140" s="0" t="str">
+        <f aca="false">CONCATENATE(A140,";",0)</f>
+        <v>114088;0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12433,8 +12577,9 @@
       <c r="B141" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C141" s="0" t="s">
-        <v>7</v>
+      <c r="C141" s="0" t="str">
+        <f aca="false">CONCATENATE(A141,";",0)</f>
+        <v>120900;0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12444,8 +12589,9 @@
       <c r="B142" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C142" s="0" t="s">
-        <v>7</v>
+      <c r="C142" s="0" t="str">
+        <f aca="false">CONCATENATE(A142,";",0)</f>
+        <v>115900;0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12455,8 +12601,9 @@
       <c r="B143" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>7</v>
+      <c r="C143" s="0" t="str">
+        <f aca="false">CONCATENATE(A143,";",0)</f>
+        <v>114246;0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12466,8 +12613,9 @@
       <c r="B144" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C144" s="0" t="s">
-        <v>7</v>
+      <c r="C144" s="0" t="str">
+        <f aca="false">CONCATENATE(A144,";",0)</f>
+        <v>117755;0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12477,8 +12625,9 @@
       <c r="B145" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="0" t="s">
-        <v>7</v>
+      <c r="C145" s="0" t="str">
+        <f aca="false">CONCATENATE(A145,";",0)</f>
+        <v>114420;0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12488,8 +12637,9 @@
       <c r="B146" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C146" s="0" t="s">
-        <v>7</v>
+      <c r="C146" s="0" t="str">
+        <f aca="false">CONCATENATE(A146,";",0)</f>
+        <v>114837;0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12499,8 +12649,9 @@
       <c r="B147" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C147" s="0" t="s">
-        <v>7</v>
+      <c r="C147" s="0" t="str">
+        <f aca="false">CONCATENATE(A147,";",0)</f>
+        <v>117091;0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12510,8 +12661,9 @@
       <c r="B148" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C148" s="0" t="s">
-        <v>7</v>
+      <c r="C148" s="0" t="str">
+        <f aca="false">CONCATENATE(A148,";",0)</f>
+        <v>114016;0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12521,8 +12673,9 @@
       <c r="B149" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C149" s="0" t="s">
-        <v>7</v>
+      <c r="C149" s="0" t="str">
+        <f aca="false">CONCATENATE(A149,";",0)</f>
+        <v>118277;0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12532,8 +12685,9 @@
       <c r="B150" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C150" s="0" t="s">
-        <v>7</v>
+      <c r="C150" s="0" t="str">
+        <f aca="false">CONCATENATE(A150,";",0)</f>
+        <v>118574;0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12543,8 +12697,9 @@
       <c r="B151" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C151" s="0" t="s">
-        <v>7</v>
+      <c r="C151" s="0" t="str">
+        <f aca="false">CONCATENATE(A151,";",0)</f>
+        <v>116991;0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12554,8 +12709,9 @@
       <c r="B152" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="0" t="s">
-        <v>7</v>
+      <c r="C152" s="0" t="str">
+        <f aca="false">CONCATENATE(A152,";",0)</f>
+        <v>114860;0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12565,8 +12721,9 @@
       <c r="B153" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="0" t="s">
-        <v>7</v>
+      <c r="C153" s="0" t="str">
+        <f aca="false">CONCATENATE(A153,";",0)</f>
+        <v>118502;0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12576,8 +12733,9 @@
       <c r="B154" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="0" t="s">
-        <v>7</v>
+      <c r="C154" s="0" t="str">
+        <f aca="false">CONCATENATE(A154,";",0)</f>
+        <v>116385;0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12587,8 +12745,9 @@
       <c r="B155" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="0" t="s">
-        <v>7</v>
+      <c r="C155" s="0" t="str">
+        <f aca="false">CONCATENATE(A155,";",0)</f>
+        <v>116242;0</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12598,8 +12757,9 @@
       <c r="B156" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="0" t="s">
-        <v>7</v>
+      <c r="C156" s="0" t="str">
+        <f aca="false">CONCATENATE(A156,";",0)</f>
+        <v>116608;0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12609,8 +12769,9 @@
       <c r="B157" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="0" t="s">
-        <v>7</v>
+      <c r="C157" s="0" t="str">
+        <f aca="false">CONCATENATE(A157,";",0)</f>
+        <v>116990;0</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12620,8 +12781,9 @@
       <c r="B158" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C158" s="0" t="s">
-        <v>7</v>
+      <c r="C158" s="0" t="str">
+        <f aca="false">CONCATENATE(A158,";",0)</f>
+        <v>115304;0</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12631,8 +12793,9 @@
       <c r="B159" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="0" t="s">
-        <v>7</v>
+      <c r="C159" s="0" t="str">
+        <f aca="false">CONCATENATE(A159,";",0)</f>
+        <v>114851;0</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12642,8 +12805,9 @@
       <c r="B160" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C160" s="0" t="s">
-        <v>7</v>
+      <c r="C160" s="0" t="str">
+        <f aca="false">CONCATENATE(A160,";",0)</f>
+        <v>115222;0</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12653,8 +12817,9 @@
       <c r="B161" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="0" t="s">
-        <v>7</v>
+      <c r="C161" s="0" t="str">
+        <f aca="false">CONCATENATE(A161,";",0)</f>
+        <v>118530;0</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12664,8 +12829,9 @@
       <c r="B162" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C162" s="0" t="s">
-        <v>7</v>
+      <c r="C162" s="0" t="str">
+        <f aca="false">CONCATENATE(A162,";",0)</f>
+        <v>118122;0</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12675,8 +12841,9 @@
       <c r="B163" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C163" s="0" t="s">
-        <v>7</v>
+      <c r="C163" s="0" t="str">
+        <f aca="false">CONCATENATE(A163,";",0)</f>
+        <v>115214;0</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12686,8 +12853,9 @@
       <c r="B164" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C164" s="0" t="s">
-        <v>7</v>
+      <c r="C164" s="0" t="str">
+        <f aca="false">CONCATENATE(A164,";",0)</f>
+        <v>114019;0</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12697,8 +12865,9 @@
       <c r="B165" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="0" t="s">
-        <v>7</v>
+      <c r="C165" s="0" t="str">
+        <f aca="false">CONCATENATE(A165,";",0)</f>
+        <v>116514;0</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12708,8 +12877,9 @@
       <c r="B166" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C166" s="0" t="s">
-        <v>7</v>
+      <c r="C166" s="0" t="str">
+        <f aca="false">CONCATENATE(A166,";",0)</f>
+        <v>117684;0</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12719,8 +12889,9 @@
       <c r="B167" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C167" s="0" t="s">
-        <v>7</v>
+      <c r="C167" s="0" t="str">
+        <f aca="false">CONCATENATE(A167,";",0)</f>
+        <v>117492;0</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12730,8 +12901,9 @@
       <c r="B168" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C168" s="0" t="s">
-        <v>7</v>
+      <c r="C168" s="0" t="str">
+        <f aca="false">CONCATENATE(A168,";",0)</f>
+        <v>117992;0</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12741,8 +12913,9 @@
       <c r="B169" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C169" s="0" t="s">
-        <v>7</v>
+      <c r="C169" s="0" t="str">
+        <f aca="false">CONCATENATE(A169,";",0)</f>
+        <v>114785;0</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12752,8 +12925,9 @@
       <c r="B170" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C170" s="0" t="s">
-        <v>7</v>
+      <c r="C170" s="0" t="str">
+        <f aca="false">CONCATENATE(A170,";",0)</f>
+        <v>117872;0</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12763,8 +12937,9 @@
       <c r="B171" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C171" s="0" t="s">
-        <v>7</v>
+      <c r="C171" s="0" t="str">
+        <f aca="false">CONCATENATE(A171,";",0)</f>
+        <v>115989;0</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12774,8 +12949,9 @@
       <c r="B172" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C172" s="0" t="s">
-        <v>7</v>
+      <c r="C172" s="0" t="str">
+        <f aca="false">CONCATENATE(A172,";",0)</f>
+        <v>114423;0</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12785,8 +12961,9 @@
       <c r="B173" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="0" t="s">
-        <v>7</v>
+      <c r="C173" s="0" t="str">
+        <f aca="false">CONCATENATE(A173,";",0)</f>
+        <v>117361;0</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12796,8 +12973,9 @@
       <c r="B174" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C174" s="0" t="s">
-        <v>7</v>
+      <c r="C174" s="0" t="str">
+        <f aca="false">CONCATENATE(A174,";",0)</f>
+        <v>116140;0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12807,8 +12985,9 @@
       <c r="B175" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C175" s="0" t="s">
-        <v>7</v>
+      <c r="C175" s="0" t="str">
+        <f aca="false">CONCATENATE(A175,";",0)</f>
+        <v>113993;0</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12818,8 +12997,9 @@
       <c r="B176" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="0" t="s">
-        <v>7</v>
+      <c r="C176" s="0" t="str">
+        <f aca="false">CONCATENATE(A176,";",0)</f>
+        <v>117794;0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12829,8 +13009,9 @@
       <c r="B177" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C177" s="0" t="s">
-        <v>7</v>
+      <c r="C177" s="0" t="str">
+        <f aca="false">CONCATENATE(A177,";",0)</f>
+        <v>113889;0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12840,8 +13021,9 @@
       <c r="B178" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C178" s="0" t="s">
-        <v>7</v>
+      <c r="C178" s="0" t="str">
+        <f aca="false">CONCATENATE(A178,";",0)</f>
+        <v>116123;0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12851,8 +13033,9 @@
       <c r="B179" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C179" s="0" t="s">
-        <v>7</v>
+      <c r="C179" s="0" t="str">
+        <f aca="false">CONCATENATE(A179,";",0)</f>
+        <v>116696;0</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12862,8 +13045,9 @@
       <c r="B180" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C180" s="0" t="s">
-        <v>7</v>
+      <c r="C180" s="0" t="str">
+        <f aca="false">CONCATENATE(A180,";",0)</f>
+        <v>117605;0</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12873,8 +13057,9 @@
       <c r="B181" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C181" s="0" t="s">
-        <v>7</v>
+      <c r="C181" s="0" t="str">
+        <f aca="false">CONCATENATE(A181,";",0)</f>
+        <v>116550;0</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12884,8 +13069,9 @@
       <c r="B182" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C182" s="0" t="s">
-        <v>7</v>
+      <c r="C182" s="0" t="str">
+        <f aca="false">CONCATENATE(A182,";",0)</f>
+        <v>115881;0</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12895,8 +13081,9 @@
       <c r="B183" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C183" s="0" t="s">
-        <v>7</v>
+      <c r="C183" s="0" t="str">
+        <f aca="false">CONCATENATE(A183,";",0)</f>
+        <v>117341;0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12906,8 +13093,9 @@
       <c r="B184" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="0" t="s">
-        <v>7</v>
+      <c r="C184" s="0" t="str">
+        <f aca="false">CONCATENATE(A184,";",0)</f>
+        <v>118387;0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12917,8 +13105,9 @@
       <c r="B185" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="0" t="s">
-        <v>7</v>
+      <c r="C185" s="0" t="str">
+        <f aca="false">CONCATENATE(A185,";",0)</f>
+        <v>117343;0</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12928,8 +13117,9 @@
       <c r="B186" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C186" s="0" t="s">
-        <v>7</v>
+      <c r="C186" s="0" t="str">
+        <f aca="false">CONCATENATE(A186,";",0)</f>
+        <v>115593;0</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12939,8 +13129,9 @@
       <c r="B187" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="0" t="s">
-        <v>7</v>
+      <c r="C187" s="0" t="str">
+        <f aca="false">CONCATENATE(A187,";",0)</f>
+        <v>115681;0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12950,8 +13141,9 @@
       <c r="B188" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C188" s="0" t="s">
-        <v>7</v>
+      <c r="C188" s="0" t="str">
+        <f aca="false">CONCATENATE(A188,";",0)</f>
+        <v>117334;0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12961,8 +13153,9 @@
       <c r="B189" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C189" s="0" t="s">
-        <v>7</v>
+      <c r="C189" s="0" t="str">
+        <f aca="false">CONCATENATE(A189,";",0)</f>
+        <v>118112;0</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12972,8 +13165,9 @@
       <c r="B190" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C190" s="0" t="s">
-        <v>7</v>
+      <c r="C190" s="0" t="str">
+        <f aca="false">CONCATENATE(A190,";",0)</f>
+        <v>114479;0</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12983,8 +13177,9 @@
       <c r="B191" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C191" s="0" t="s">
-        <v>7</v>
+      <c r="C191" s="0" t="str">
+        <f aca="false">CONCATENATE(A191,";",0)</f>
+        <v>117332;0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12994,8 +13189,9 @@
       <c r="B192" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C192" s="0" t="s">
-        <v>7</v>
+      <c r="C192" s="0" t="str">
+        <f aca="false">CONCATENATE(A192,";",0)</f>
+        <v>118281;0</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13005,8 +13201,9 @@
       <c r="B193" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C193" s="0" t="s">
-        <v>7</v>
+      <c r="C193" s="0" t="str">
+        <f aca="false">CONCATENATE(A193,";",0)</f>
+        <v>118538;0</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13016,8 +13213,9 @@
       <c r="B194" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="0" t="s">
-        <v>7</v>
+      <c r="C194" s="0" t="str">
+        <f aca="false">CONCATENATE(A194,";",0)</f>
+        <v>116856;0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13027,8 +13225,9 @@
       <c r="B195" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C195" s="0" t="s">
-        <v>7</v>
+      <c r="C195" s="0" t="str">
+        <f aca="false">CONCATENATE(A195,";",0)</f>
+        <v>116035;0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13038,8 +13237,9 @@
       <c r="B196" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C196" s="0" t="s">
-        <v>7</v>
+      <c r="C196" s="0" t="str">
+        <f aca="false">CONCATENATE(A196,";",0)</f>
+        <v>114781;0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13049,8 +13249,9 @@
       <c r="B197" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C197" s="0" t="s">
-        <v>7</v>
+      <c r="C197" s="0" t="str">
+        <f aca="false">CONCATENATE(A197,";",0)</f>
+        <v>114409;0</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13060,8 +13261,9 @@
       <c r="B198" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C198" s="0" t="s">
-        <v>7</v>
+      <c r="C198" s="0" t="str">
+        <f aca="false">CONCATENATE(A198,";",0)</f>
+        <v>115132;0</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13071,8 +13273,9 @@
       <c r="B199" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C199" s="0" t="s">
-        <v>7</v>
+      <c r="C199" s="0" t="str">
+        <f aca="false">CONCATENATE(A199,";",0)</f>
+        <v>120921;0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13082,8 +13285,9 @@
       <c r="B200" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C200" s="0" t="s">
-        <v>7</v>
+      <c r="C200" s="0" t="str">
+        <f aca="false">CONCATENATE(A200,";",0)</f>
+        <v>116188;0</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13093,8 +13297,9 @@
       <c r="B201" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C201" s="0" t="s">
-        <v>7</v>
+      <c r="C201" s="0" t="str">
+        <f aca="false">CONCATENATE(A201,";",0)</f>
+        <v>115513;0</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13104,8 +13309,9 @@
       <c r="B202" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C202" s="0" t="s">
-        <v>7</v>
+      <c r="C202" s="0" t="str">
+        <f aca="false">CONCATENATE(A202,";",0)</f>
+        <v>115391;0</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13115,8 +13321,9 @@
       <c r="B203" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C203" s="0" t="s">
-        <v>7</v>
+      <c r="C203" s="0" t="str">
+        <f aca="false">CONCATENATE(A203,";",0)</f>
+        <v>115784;0</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13126,8 +13333,9 @@
       <c r="B204" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C204" s="0" t="s">
-        <v>7</v>
+      <c r="C204" s="0" t="str">
+        <f aca="false">CONCATENATE(A204,";",0)</f>
+        <v>115631;0</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13137,8 +13345,9 @@
       <c r="B205" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C205" s="0" t="s">
-        <v>7</v>
+      <c r="C205" s="0" t="str">
+        <f aca="false">CONCATENATE(A205,";",0)</f>
+        <v>115705;0</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13148,8 +13357,9 @@
       <c r="B206" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C206" s="0" t="s">
-        <v>7</v>
+      <c r="C206" s="0" t="str">
+        <f aca="false">CONCATENATE(A206,";",0)</f>
+        <v>120888;0</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13159,8 +13369,9 @@
       <c r="B207" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C207" s="0" t="s">
-        <v>7</v>
+      <c r="C207" s="0" t="str">
+        <f aca="false">CONCATENATE(A207,";",0)</f>
+        <v>118668;0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13170,8 +13381,9 @@
       <c r="B208" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C208" s="0" t="s">
-        <v>7</v>
+      <c r="C208" s="0" t="str">
+        <f aca="false">CONCATENATE(A208,";",0)</f>
+        <v>116754;0</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13181,8 +13393,9 @@
       <c r="B209" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C209" s="0" t="s">
-        <v>7</v>
+      <c r="C209" s="0" t="str">
+        <f aca="false">CONCATENATE(A209,";",0)</f>
+        <v>117537;0</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13192,8 +13405,9 @@
       <c r="B210" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C210" s="0" t="s">
-        <v>7</v>
+      <c r="C210" s="0" t="str">
+        <f aca="false">CONCATENATE(A210,";",0)</f>
+        <v>117199;0</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13203,8 +13417,9 @@
       <c r="B211" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C211" s="0" t="s">
-        <v>7</v>
+      <c r="C211" s="0" t="str">
+        <f aca="false">CONCATENATE(A211,";",0)</f>
+        <v>115091;0</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13214,8 +13429,9 @@
       <c r="B212" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C212" s="0" t="s">
-        <v>7</v>
+      <c r="C212" s="0" t="str">
+        <f aca="false">CONCATENATE(A212,";",0)</f>
+        <v>114075;0</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13225,8 +13441,9 @@
       <c r="B213" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C213" s="0" t="s">
-        <v>7</v>
+      <c r="C213" s="0" t="str">
+        <f aca="false">CONCATENATE(A213,";",0)</f>
+        <v>117327;0</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13236,8 +13453,9 @@
       <c r="B214" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C214" s="0" t="s">
-        <v>7</v>
+      <c r="C214" s="0" t="str">
+        <f aca="false">CONCATENATE(A214,";",0)</f>
+        <v>118234;0</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13247,8 +13465,9 @@
       <c r="B215" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C215" s="0" t="s">
-        <v>7</v>
+      <c r="C215" s="0" t="str">
+        <f aca="false">CONCATENATE(A215,";",0)</f>
+        <v>117176;0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13258,8 +13477,9 @@
       <c r="B216" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C216" s="0" t="s">
-        <v>7</v>
+      <c r="C216" s="0" t="str">
+        <f aca="false">CONCATENATE(A216,";",0)</f>
+        <v>118080;0</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13269,8 +13489,9 @@
       <c r="B217" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C217" s="0" t="s">
-        <v>7</v>
+      <c r="C217" s="0" t="str">
+        <f aca="false">CONCATENATE(A217,";",0)</f>
+        <v>118526;0</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13280,8 +13501,9 @@
       <c r="B218" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C218" s="0" t="s">
-        <v>7</v>
+      <c r="C218" s="0" t="str">
+        <f aca="false">CONCATENATE(A218,";",0)</f>
+        <v>118310;0</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13291,8 +13513,9 @@
       <c r="B219" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C219" s="0" t="s">
-        <v>7</v>
+      <c r="C219" s="0" t="str">
+        <f aca="false">CONCATENATE(A219,";",0)</f>
+        <v>114268;0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13302,8 +13525,9 @@
       <c r="B220" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C220" s="0" t="s">
-        <v>7</v>
+      <c r="C220" s="0" t="str">
+        <f aca="false">CONCATENATE(A220,";",0)</f>
+        <v>118563;0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13313,8 +13537,9 @@
       <c r="B221" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C221" s="0" t="s">
-        <v>7</v>
+      <c r="C221" s="0" t="str">
+        <f aca="false">CONCATENATE(A221,";",0)</f>
+        <v>115765;0</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13324,8 +13549,9 @@
       <c r="B222" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C222" s="0" t="s">
-        <v>7</v>
+      <c r="C222" s="0" t="str">
+        <f aca="false">CONCATENATE(A222,";",0)</f>
+        <v>118102;0</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13335,8 +13561,9 @@
       <c r="B223" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C223" s="0" t="s">
-        <v>7</v>
+      <c r="C223" s="0" t="str">
+        <f aca="false">CONCATENATE(A223,";",0)</f>
+        <v>117548;0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13346,8 +13573,9 @@
       <c r="B224" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C224" s="0" t="s">
-        <v>7</v>
+      <c r="C224" s="0" t="str">
+        <f aca="false">CONCATENATE(A224,";",0)</f>
+        <v>114488;0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13357,8 +13585,9 @@
       <c r="B225" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C225" s="0" t="s">
-        <v>7</v>
+      <c r="C225" s="0" t="str">
+        <f aca="false">CONCATENATE(A225,";",0)</f>
+        <v>117115;0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13368,8 +13597,9 @@
       <c r="B226" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C226" s="0" t="s">
-        <v>7</v>
+      <c r="C226" s="0" t="str">
+        <f aca="false">CONCATENATE(A226,";",0)</f>
+        <v>118586;0</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13379,8 +13609,9 @@
       <c r="B227" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C227" s="0" t="s">
-        <v>7</v>
+      <c r="C227" s="0" t="str">
+        <f aca="false">CONCATENATE(A227,";",0)</f>
+        <v>117037;0</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13390,8 +13621,9 @@
       <c r="B228" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C228" s="0" t="s">
-        <v>7</v>
+      <c r="C228" s="0" t="str">
+        <f aca="false">CONCATENATE(A228,";",0)</f>
+        <v>114346;0</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13401,8 +13633,9 @@
       <c r="B229" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C229" s="0" t="s">
-        <v>7</v>
+      <c r="C229" s="0" t="str">
+        <f aca="false">CONCATENATE(A229,";",0)</f>
+        <v>116350;0</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13412,8 +13645,9 @@
       <c r="B230" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C230" s="0" t="s">
-        <v>7</v>
+      <c r="C230" s="0" t="str">
+        <f aca="false">CONCATENATE(A230,";",0)</f>
+        <v>113686;0</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13423,8 +13657,9 @@
       <c r="B231" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C231" s="0" t="s">
-        <v>7</v>
+      <c r="C231" s="0" t="str">
+        <f aca="false">CONCATENATE(A231,";",0)</f>
+        <v>115324;0</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13434,8 +13669,9 @@
       <c r="B232" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C232" s="0" t="s">
-        <v>7</v>
+      <c r="C232" s="0" t="str">
+        <f aca="false">CONCATENATE(A232,";",0)</f>
+        <v>118103;0</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13445,8 +13681,9 @@
       <c r="B233" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C233" s="0" t="s">
-        <v>7</v>
+      <c r="C233" s="0" t="str">
+        <f aca="false">CONCATENATE(A233,";",0)</f>
+        <v>115830;0</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13456,8 +13693,9 @@
       <c r="B234" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C234" s="0" t="s">
-        <v>7</v>
+      <c r="C234" s="0" t="str">
+        <f aca="false">CONCATENATE(A234,";",0)</f>
+        <v>118017;0</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13467,8 +13705,9 @@
       <c r="B235" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C235" s="0" t="s">
-        <v>7</v>
+      <c r="C235" s="0" t="str">
+        <f aca="false">CONCATENATE(A235,";",0)</f>
+        <v>118107;0</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13478,8 +13717,9 @@
       <c r="B236" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C236" s="0" t="s">
-        <v>7</v>
+      <c r="C236" s="0" t="str">
+        <f aca="false">CONCATENATE(A236,";",0)</f>
+        <v>117374;0</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13489,8 +13729,9 @@
       <c r="B237" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C237" s="0" t="s">
-        <v>7</v>
+      <c r="C237" s="0" t="str">
+        <f aca="false">CONCATENATE(A237,";",0)</f>
+        <v>114840;0</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13500,8 +13741,9 @@
       <c r="B238" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C238" s="0" t="s">
-        <v>7</v>
+      <c r="C238" s="0" t="str">
+        <f aca="false">CONCATENATE(A238,";",0)</f>
+        <v>118522;0</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13511,8 +13753,9 @@
       <c r="B239" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C239" s="0" t="s">
-        <v>7</v>
+      <c r="C239" s="0" t="str">
+        <f aca="false">CONCATENATE(A239,";",0)</f>
+        <v>117666;0</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13522,8 +13765,9 @@
       <c r="B240" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C240" s="0" t="s">
-        <v>7</v>
+      <c r="C240" s="0" t="str">
+        <f aca="false">CONCATENATE(A240,";",0)</f>
+        <v>120919;0</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13533,8 +13777,9 @@
       <c r="B241" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C241" s="0" t="s">
-        <v>7</v>
+      <c r="C241" s="0" t="str">
+        <f aca="false">CONCATENATE(A241,";",0)</f>
+        <v>117346;0</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13544,8 +13789,9 @@
       <c r="B242" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C242" s="0" t="s">
-        <v>7</v>
+      <c r="C242" s="0" t="str">
+        <f aca="false">CONCATENATE(A242,";",0)</f>
+        <v>117876;0</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13555,8 +13801,9 @@
       <c r="B243" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C243" s="0" t="s">
-        <v>7</v>
+      <c r="C243" s="0" t="str">
+        <f aca="false">CONCATENATE(A243,";",0)</f>
+        <v>116782;0</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13566,8 +13813,9 @@
       <c r="B244" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C244" s="0" t="s">
-        <v>7</v>
+      <c r="C244" s="0" t="str">
+        <f aca="false">CONCATENATE(A244,";",0)</f>
+        <v>115710;0</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13577,8 +13825,9 @@
       <c r="B245" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C245" s="0" t="s">
-        <v>7</v>
+      <c r="C245" s="0" t="str">
+        <f aca="false">CONCATENATE(A245,";",0)</f>
+        <v>114947;0</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13588,8 +13837,9 @@
       <c r="B246" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C246" s="0" t="s">
-        <v>7</v>
+      <c r="C246" s="0" t="str">
+        <f aca="false">CONCATENATE(A246,";",0)</f>
+        <v>117288;0</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13599,8 +13849,9 @@
       <c r="B247" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C247" s="0" t="s">
-        <v>7</v>
+      <c r="C247" s="0" t="str">
+        <f aca="false">CONCATENATE(A247,";",0)</f>
+        <v>117686;0</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13610,8 +13861,9 @@
       <c r="B248" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C248" s="0" t="s">
-        <v>7</v>
+      <c r="C248" s="0" t="str">
+        <f aca="false">CONCATENATE(A248,";",0)</f>
+        <v>115217;0</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13621,8 +13873,9 @@
       <c r="B249" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C249" s="0" t="s">
-        <v>7</v>
+      <c r="C249" s="0" t="str">
+        <f aca="false">CONCATENATE(A249,";",0)</f>
+        <v>117282;0</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13632,8 +13885,9 @@
       <c r="B250" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C250" s="0" t="s">
-        <v>7</v>
+      <c r="C250" s="0" t="str">
+        <f aca="false">CONCATENATE(A250,";",0)</f>
+        <v>118381;0</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13643,8 +13897,9 @@
       <c r="B251" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C251" s="0" t="s">
-        <v>7</v>
+      <c r="C251" s="0" t="str">
+        <f aca="false">CONCATENATE(A251,";",0)</f>
+        <v>116588;0</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13654,8 +13909,9 @@
       <c r="B252" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C252" s="0" t="s">
-        <v>7</v>
+      <c r="C252" s="0" t="str">
+        <f aca="false">CONCATENATE(A252,";",0)</f>
+        <v>114546;0</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13665,8 +13921,9 @@
       <c r="B253" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C253" s="0" t="s">
-        <v>7</v>
+      <c r="C253" s="0" t="str">
+        <f aca="false">CONCATENATE(A253,";",0)</f>
+        <v>116963;0</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13676,8 +13933,9 @@
       <c r="B254" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C254" s="0" t="s">
-        <v>7</v>
+      <c r="C254" s="0" t="str">
+        <f aca="false">CONCATENATE(A254,";",0)</f>
+        <v>114964;0</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13687,8 +13945,9 @@
       <c r="B255" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C255" s="0" t="s">
-        <v>7</v>
+      <c r="C255" s="0" t="str">
+        <f aca="false">CONCATENATE(A255,";",0)</f>
+        <v>116324;0</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13698,8 +13957,9 @@
       <c r="B256" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C256" s="0" t="s">
-        <v>7</v>
+      <c r="C256" s="0" t="str">
+        <f aca="false">CONCATENATE(A256,";",0)</f>
+        <v>114399;0</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13709,8 +13969,9 @@
       <c r="B257" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C257" s="0" t="s">
-        <v>7</v>
+      <c r="C257" s="0" t="str">
+        <f aca="false">CONCATENATE(A257,";",0)</f>
+        <v>118293;0</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13720,8 +13981,9 @@
       <c r="B258" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C258" s="0" t="s">
-        <v>7</v>
+      <c r="C258" s="0" t="str">
+        <f aca="false">CONCATENATE(A258,";",0)</f>
+        <v>114792;0</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13731,8 +13993,9 @@
       <c r="B259" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C259" s="0" t="s">
-        <v>7</v>
+      <c r="C259" s="0" t="str">
+        <f aca="false">CONCATENATE(A259,";",0)</f>
+        <v>115372;0</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13742,8 +14005,9 @@
       <c r="B260" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C260" s="0" t="s">
-        <v>7</v>
+      <c r="C260" s="0" t="str">
+        <f aca="false">CONCATENATE(A260,";",0)</f>
+        <v>119749;0</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13753,8 +14017,9 @@
       <c r="B261" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C261" s="0" t="s">
-        <v>7</v>
+      <c r="C261" s="0" t="str">
+        <f aca="false">CONCATENATE(A261,";",0)</f>
+        <v>116228;0</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13764,8 +14029,9 @@
       <c r="B262" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C262" s="0" t="s">
-        <v>7</v>
+      <c r="C262" s="0" t="str">
+        <f aca="false">CONCATENATE(A262,";",0)</f>
+        <v>116803;0</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13775,8 +14041,9 @@
       <c r="B263" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C263" s="0" t="s">
-        <v>7</v>
+      <c r="C263" s="0" t="str">
+        <f aca="false">CONCATENATE(A263,";",0)</f>
+        <v>114569;0</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13786,8 +14053,9 @@
       <c r="B264" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C264" s="0" t="s">
-        <v>7</v>
+      <c r="C264" s="0" t="str">
+        <f aca="false">CONCATENATE(A264,";",0)</f>
+        <v>119679;0</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13797,8 +14065,9 @@
       <c r="B265" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C265" s="0" t="s">
-        <v>7</v>
+      <c r="C265" s="0" t="str">
+        <f aca="false">CONCATENATE(A265,";",0)</f>
+        <v>118366;0</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13808,8 +14077,9 @@
       <c r="B266" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C266" s="0" t="s">
-        <v>7</v>
+      <c r="C266" s="0" t="str">
+        <f aca="false">CONCATENATE(A266,";",0)</f>
+        <v>116697;0</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13819,8 +14089,9 @@
       <c r="B267" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C267" s="0" t="s">
-        <v>7</v>
+      <c r="C267" s="0" t="str">
+        <f aca="false">CONCATENATE(A267,";",0)</f>
+        <v>116354;0</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13830,8 +14101,9 @@
       <c r="B268" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C268" s="0" t="s">
-        <v>7</v>
+      <c r="C268" s="0" t="str">
+        <f aca="false">CONCATENATE(A268,";",0)</f>
+        <v>113969;0</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13841,8 +14113,9 @@
       <c r="B269" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C269" s="0" t="s">
-        <v>7</v>
+      <c r="C269" s="0" t="str">
+        <f aca="false">CONCATENATE(A269,";",0)</f>
+        <v>117856;0</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13852,8 +14125,9 @@
       <c r="B270" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C270" s="0" t="s">
-        <v>7</v>
+      <c r="C270" s="0" t="str">
+        <f aca="false">CONCATENATE(A270,";",0)</f>
+        <v>115444;0</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13863,8 +14137,9 @@
       <c r="B271" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C271" s="0" t="s">
-        <v>7</v>
+      <c r="C271" s="0" t="str">
+        <f aca="false">CONCATENATE(A271,";",0)</f>
+        <v>114329;0</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13874,8 +14149,9 @@
       <c r="B272" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C272" s="0" t="s">
-        <v>7</v>
+      <c r="C272" s="0" t="str">
+        <f aca="false">CONCATENATE(A272,";",0)</f>
+        <v>115824;0</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13885,8 +14161,9 @@
       <c r="B273" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C273" s="0" t="s">
-        <v>7</v>
+      <c r="C273" s="0" t="str">
+        <f aca="false">CONCATENATE(A273,";",0)</f>
+        <v>114122;0</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13896,8 +14173,9 @@
       <c r="B274" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C274" s="0" t="s">
-        <v>7</v>
+      <c r="C274" s="0" t="str">
+        <f aca="false">CONCATENATE(A274,";",0)</f>
+        <v>114173;0</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13907,8 +14185,9 @@
       <c r="B275" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C275" s="0" t="s">
-        <v>7</v>
+      <c r="C275" s="0" t="str">
+        <f aca="false">CONCATENATE(A275,";",0)</f>
+        <v>116785;0</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13918,8 +14197,9 @@
       <c r="B276" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C276" s="0" t="s">
-        <v>7</v>
+      <c r="C276" s="0" t="str">
+        <f aca="false">CONCATENATE(A276,";",0)</f>
+        <v>114485;0</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13929,8 +14209,9 @@
       <c r="B277" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C277" s="0" t="s">
-        <v>7</v>
+      <c r="C277" s="0" t="str">
+        <f aca="false">CONCATENATE(A277,";",0)</f>
+        <v>118218;0</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13940,8 +14221,9 @@
       <c r="B278" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C278" s="0" t="s">
-        <v>7</v>
+      <c r="C278" s="0" t="str">
+        <f aca="false">CONCATENATE(A278,";",0)</f>
+        <v>114484;0</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13951,8 +14233,9 @@
       <c r="B279" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C279" s="0" t="s">
-        <v>7</v>
+      <c r="C279" s="0" t="str">
+        <f aca="false">CONCATENATE(A279,";",0)</f>
+        <v>114029;0</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13962,8 +14245,9 @@
       <c r="B280" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C280" s="0" t="s">
-        <v>7</v>
+      <c r="C280" s="0" t="str">
+        <f aca="false">CONCATENATE(A280,";",0)</f>
+        <v>114035;0</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13973,8 +14257,9 @@
       <c r="B281" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C281" s="0" t="s">
-        <v>7</v>
+      <c r="C281" s="0" t="str">
+        <f aca="false">CONCATENATE(A281,";",0)</f>
+        <v>117065;0</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13984,8 +14269,9 @@
       <c r="B282" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C282" s="0" t="s">
-        <v>7</v>
+      <c r="C282" s="0" t="str">
+        <f aca="false">CONCATENATE(A282,";",0)</f>
+        <v>116131;0</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13995,8 +14281,9 @@
       <c r="B283" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C283" s="0" t="s">
-        <v>7</v>
+      <c r="C283" s="0" t="str">
+        <f aca="false">CONCATENATE(A283,";",0)</f>
+        <v>118679;0</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14006,8 +14293,9 @@
       <c r="B284" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C284" s="0" t="s">
-        <v>7</v>
+      <c r="C284" s="0" t="str">
+        <f aca="false">CONCATENATE(A284,";",0)</f>
+        <v>114153;0</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14017,8 +14305,9 @@
       <c r="B285" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C285" s="0" t="s">
-        <v>7</v>
+      <c r="C285" s="0" t="str">
+        <f aca="false">CONCATENATE(A285,";",0)</f>
+        <v>116362;0</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14028,8 +14317,9 @@
       <c r="B286" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C286" s="0" t="s">
-        <v>7</v>
+      <c r="C286" s="0" t="str">
+        <f aca="false">CONCATENATE(A286,";",0)</f>
+        <v>114218;0</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14039,8 +14329,9 @@
       <c r="B287" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C287" s="0" t="s">
-        <v>7</v>
+      <c r="C287" s="0" t="str">
+        <f aca="false">CONCATENATE(A287,";",0)</f>
+        <v>116942;0</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14050,8 +14341,9 @@
       <c r="B288" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C288" s="0" t="s">
-        <v>7</v>
+      <c r="C288" s="0" t="str">
+        <f aca="false">CONCATENATE(A288,";",0)</f>
+        <v>117107;0</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14061,8 +14353,9 @@
       <c r="B289" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C289" s="0" t="s">
-        <v>7</v>
+      <c r="C289" s="0" t="str">
+        <f aca="false">CONCATENATE(A289,";",0)</f>
+        <v>120858;0</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14072,8 +14365,9 @@
       <c r="B290" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C290" s="0" t="s">
-        <v>7</v>
+      <c r="C290" s="0" t="str">
+        <f aca="false">CONCATENATE(A290,";",0)</f>
+        <v>115068;0</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14083,8 +14377,9 @@
       <c r="B291" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C291" s="0" t="s">
-        <v>7</v>
+      <c r="C291" s="0" t="str">
+        <f aca="false">CONCATENATE(A291,";",0)</f>
+        <v>115902;0</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14094,8 +14389,9 @@
       <c r="B292" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C292" s="0" t="s">
-        <v>7</v>
+      <c r="C292" s="0" t="str">
+        <f aca="false">CONCATENATE(A292,";",0)</f>
+        <v>118665;0</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14105,8 +14401,9 @@
       <c r="B293" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C293" s="0" t="s">
-        <v>7</v>
+      <c r="C293" s="0" t="str">
+        <f aca="false">CONCATENATE(A293,";",0)</f>
+        <v>117345;0</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14116,8 +14413,9 @@
       <c r="B294" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C294" s="0" t="s">
-        <v>7</v>
+      <c r="C294" s="0" t="str">
+        <f aca="false">CONCATENATE(A294,";",0)</f>
+        <v>114272;0</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14127,8 +14425,9 @@
       <c r="B295" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C295" s="0" t="s">
-        <v>7</v>
+      <c r="C295" s="0" t="str">
+        <f aca="false">CONCATENATE(A295,";",0)</f>
+        <v>117888;0</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14138,8 +14437,9 @@
       <c r="B296" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C296" s="0" t="s">
-        <v>7</v>
+      <c r="C296" s="0" t="str">
+        <f aca="false">CONCATENATE(A296,";",0)</f>
+        <v>114476;0</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14149,8 +14449,9 @@
       <c r="B297" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C297" s="0" t="s">
-        <v>7</v>
+      <c r="C297" s="0" t="str">
+        <f aca="false">CONCATENATE(A297,";",0)</f>
+        <v>118570;0</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14160,8 +14461,9 @@
       <c r="B298" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C298" s="0" t="s">
-        <v>7</v>
+      <c r="C298" s="0" t="str">
+        <f aca="false">CONCATENATE(A298,";",0)</f>
+        <v>114339;0</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14171,8 +14473,9 @@
       <c r="B299" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C299" s="0" t="s">
-        <v>7</v>
+      <c r="C299" s="0" t="str">
+        <f aca="false">CONCATENATE(A299,";",0)</f>
+        <v>115434;0</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14182,8 +14485,9 @@
       <c r="B300" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C300" s="0" t="s">
-        <v>7</v>
+      <c r="C300" s="0" t="str">
+        <f aca="false">CONCATENATE(A300,";",0)</f>
+        <v>115786;0</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14193,8 +14497,9 @@
       <c r="B301" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C301" s="0" t="s">
-        <v>7</v>
+      <c r="C301" s="0" t="str">
+        <f aca="false">CONCATENATE(A301,";",0)</f>
+        <v>118007;0</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14204,8 +14509,9 @@
       <c r="B302" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C302" s="0" t="s">
-        <v>7</v>
+      <c r="C302" s="0" t="str">
+        <f aca="false">CONCATENATE(A302,";",0)</f>
+        <v>119753;0</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14215,8 +14521,9 @@
       <c r="B303" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C303" s="0" t="s">
-        <v>7</v>
+      <c r="C303" s="0" t="str">
+        <f aca="false">CONCATENATE(A303,";",0)</f>
+        <v>117527;0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14226,8 +14533,9 @@
       <c r="B304" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C304" s="0" t="s">
-        <v>7</v>
+      <c r="C304" s="0" t="str">
+        <f aca="false">CONCATENATE(A304,";",0)</f>
+        <v>117445;0</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14237,8 +14545,9 @@
       <c r="B305" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C305" s="0" t="s">
-        <v>7</v>
+      <c r="C305" s="0" t="str">
+        <f aca="false">CONCATENATE(A305,";",0)</f>
+        <v>117759;0</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14248,8 +14557,9 @@
       <c r="B306" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C306" s="0" t="s">
-        <v>7</v>
+      <c r="C306" s="0" t="str">
+        <f aca="false">CONCATENATE(A306,";",0)</f>
+        <v>115457;0</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14259,8 +14569,9 @@
       <c r="B307" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C307" s="0" t="s">
-        <v>7</v>
+      <c r="C307" s="0" t="str">
+        <f aca="false">CONCATENATE(A307,";",0)</f>
+        <v>116157;0</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14270,8 +14581,9 @@
       <c r="B308" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C308" s="0" t="s">
-        <v>7</v>
+      <c r="C308" s="0" t="str">
+        <f aca="false">CONCATENATE(A308,";",0)</f>
+        <v>118469;0</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14281,8 +14593,9 @@
       <c r="B309" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C309" s="0" t="s">
-        <v>7</v>
+      <c r="C309" s="0" t="str">
+        <f aca="false">CONCATENATE(A309,";",0)</f>
+        <v>116181;0</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14292,8 +14605,9 @@
       <c r="B310" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C310" s="0" t="s">
-        <v>7</v>
+      <c r="C310" s="0" t="str">
+        <f aca="false">CONCATENATE(A310,";",0)</f>
+        <v>118239;0</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14303,8 +14617,9 @@
       <c r="B311" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C311" s="0" t="s">
-        <v>7</v>
+      <c r="C311" s="0" t="str">
+        <f aca="false">CONCATENATE(A311,";",0)</f>
+        <v>118120;0</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14314,8 +14629,9 @@
       <c r="B312" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C312" s="0" t="s">
-        <v>7</v>
+      <c r="C312" s="0" t="str">
+        <f aca="false">CONCATENATE(A312,";",0)</f>
+        <v>117184;0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14325,8 +14641,9 @@
       <c r="B313" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C313" s="0" t="s">
-        <v>7</v>
+      <c r="C313" s="0" t="str">
+        <f aca="false">CONCATENATE(A313,";",0)</f>
+        <v>116069;0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14336,8 +14653,9 @@
       <c r="B314" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C314" s="0" t="s">
-        <v>7</v>
+      <c r="C314" s="0" t="str">
+        <f aca="false">CONCATENATE(A314,";",0)</f>
+        <v>115446;0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14347,8 +14665,9 @@
       <c r="B315" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C315" s="0" t="s">
-        <v>7</v>
+      <c r="C315" s="0" t="str">
+        <f aca="false">CONCATENATE(A315,";",0)</f>
+        <v>114179;0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14358,8 +14677,9 @@
       <c r="B316" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C316" s="0" t="s">
-        <v>7</v>
+      <c r="C316" s="0" t="str">
+        <f aca="false">CONCATENATE(A316,";",0)</f>
+        <v>116666;0</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14369,8 +14689,9 @@
       <c r="B317" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C317" s="0" t="s">
-        <v>7</v>
+      <c r="C317" s="0" t="str">
+        <f aca="false">CONCATENATE(A317,";",0)</f>
+        <v>115066;0</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14380,8 +14701,9 @@
       <c r="B318" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C318" s="0" t="s">
-        <v>7</v>
+      <c r="C318" s="0" t="str">
+        <f aca="false">CONCATENATE(A318,";",0)</f>
+        <v>116509;0</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14391,8 +14713,9 @@
       <c r="B319" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C319" s="0" t="s">
-        <v>7</v>
+      <c r="C319" s="0" t="str">
+        <f aca="false">CONCATENATE(A319,";",0)</f>
+        <v>114478;0</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14402,8 +14725,9 @@
       <c r="B320" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C320" s="0" t="s">
-        <v>7</v>
+      <c r="C320" s="0" t="str">
+        <f aca="false">CONCATENATE(A320,";",0)</f>
+        <v>116740;0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14413,8 +14737,9 @@
       <c r="B321" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C321" s="0" t="s">
-        <v>7</v>
+      <c r="C321" s="0" t="str">
+        <f aca="false">CONCATENATE(A321,";",0)</f>
+        <v>115898;0</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14424,8 +14749,9 @@
       <c r="B322" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C322" s="0" t="s">
-        <v>7</v>
+      <c r="C322" s="0" t="str">
+        <f aca="false">CONCATENATE(A322,";",0)</f>
+        <v>114967;0</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14435,8 +14761,9 @@
       <c r="B323" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C323" s="0" t="s">
-        <v>7</v>
+      <c r="C323" s="0" t="str">
+        <f aca="false">CONCATENATE(A323,";",0)</f>
+        <v>115388;0</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14446,8 +14773,9 @@
       <c r="B324" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C324" s="0" t="s">
-        <v>7</v>
+      <c r="C324" s="0" t="str">
+        <f aca="false">CONCATENATE(A324,";",0)</f>
+        <v>118398;0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14457,8 +14785,9 @@
       <c r="B325" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C325" s="0" t="s">
-        <v>7</v>
+      <c r="C325" s="0" t="str">
+        <f aca="false">CONCATENATE(A325,";",0)</f>
+        <v>117571;0</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14468,8 +14797,9 @@
       <c r="B326" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C326" s="0" t="s">
-        <v>7</v>
+      <c r="C326" s="0" t="str">
+        <f aca="false">CONCATENATE(A326,";",0)</f>
+        <v>114074;0</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14479,8 +14809,9 @@
       <c r="B327" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C327" s="0" t="s">
-        <v>7</v>
+      <c r="C327" s="0" t="str">
+        <f aca="false">CONCATENATE(A327,";",0)</f>
+        <v>115363;0</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14490,8 +14821,9 @@
       <c r="B328" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C328" s="0" t="s">
-        <v>7</v>
+      <c r="C328" s="0" t="str">
+        <f aca="false">CONCATENATE(A328,";",0)</f>
+        <v>114734;0</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14501,8 +14833,9 @@
       <c r="B329" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C329" s="0" t="s">
-        <v>7</v>
+      <c r="C329" s="0" t="str">
+        <f aca="false">CONCATENATE(A329,";",0)</f>
+        <v>116580;0</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14512,8 +14845,9 @@
       <c r="B330" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C330" s="0" t="s">
-        <v>7</v>
+      <c r="C330" s="0" t="str">
+        <f aca="false">CONCATENATE(A330,";",0)</f>
+        <v>115950;0</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14523,8 +14857,9 @@
       <c r="B331" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C331" s="0" t="s">
-        <v>7</v>
+      <c r="C331" s="0" t="str">
+        <f aca="false">CONCATENATE(A331,";",0)</f>
+        <v>114267;0</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14534,8 +14869,9 @@
       <c r="B332" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C332" s="0" t="s">
-        <v>7</v>
+      <c r="C332" s="0" t="str">
+        <f aca="false">CONCATENATE(A332,";",0)</f>
+        <v>115106;0</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14545,8 +14881,9 @@
       <c r="B333" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C333" s="0" t="s">
-        <v>7</v>
+      <c r="C333" s="0" t="str">
+        <f aca="false">CONCATENATE(A333,";",0)</f>
+        <v>118670;0</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14556,8 +14893,9 @@
       <c r="B334" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C334" s="0" t="s">
-        <v>7</v>
+      <c r="C334" s="0" t="str">
+        <f aca="false">CONCATENATE(A334,";",0)</f>
+        <v>117350;0</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14567,8 +14905,9 @@
       <c r="B335" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C335" s="0" t="s">
-        <v>7</v>
+      <c r="C335" s="0" t="str">
+        <f aca="false">CONCATENATE(A335,";",0)</f>
+        <v>116664;0</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14578,8 +14917,9 @@
       <c r="B336" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C336" s="0" t="s">
-        <v>7</v>
+      <c r="C336" s="0" t="str">
+        <f aca="false">CONCATENATE(A336,";",0)</f>
+        <v>118342;0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14589,8 +14929,9 @@
       <c r="B337" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C337" s="0" t="s">
-        <v>7</v>
+      <c r="C337" s="0" t="str">
+        <f aca="false">CONCATENATE(A337,";",0)</f>
+        <v>117477;0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14600,8 +14941,9 @@
       <c r="B338" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C338" s="0" t="s">
-        <v>7</v>
+      <c r="C338" s="0" t="str">
+        <f aca="false">CONCATENATE(A338,";",0)</f>
+        <v>115246;0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14611,8 +14953,9 @@
       <c r="B339" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C339" s="0" t="s">
-        <v>7</v>
+      <c r="C339" s="0" t="str">
+        <f aca="false">CONCATENATE(A339,";",0)</f>
+        <v>117803;0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14622,8 +14965,9 @@
       <c r="B340" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C340" s="0" t="s">
-        <v>7</v>
+      <c r="C340" s="0" t="str">
+        <f aca="false">CONCATENATE(A340,";",0)</f>
+        <v>117670;0</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14633,8 +14977,9 @@
       <c r="B341" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C341" s="0" t="s">
-        <v>7</v>
+      <c r="C341" s="0" t="str">
+        <f aca="false">CONCATENATE(A341,";",0)</f>
+        <v>115045;0</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14644,8 +14989,9 @@
       <c r="B342" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C342" s="0" t="s">
-        <v>7</v>
+      <c r="C342" s="0" t="str">
+        <f aca="false">CONCATENATE(A342,";",0)</f>
+        <v>114931;0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14655,8 +15001,9 @@
       <c r="B343" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C343" s="0" t="s">
-        <v>7</v>
+      <c r="C343" s="0" t="str">
+        <f aca="false">CONCATENATE(A343,";",0)</f>
+        <v>119733;0</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14666,8 +15013,9 @@
       <c r="B344" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C344" s="0" t="s">
-        <v>7</v>
+      <c r="C344" s="0" t="str">
+        <f aca="false">CONCATENATE(A344,";",0)</f>
+        <v>117665;0</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14677,8 +15025,9 @@
       <c r="B345" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C345" s="0" t="s">
-        <v>7</v>
+      <c r="C345" s="0" t="str">
+        <f aca="false">CONCATENATE(A345,";",0)</f>
+        <v>120880;0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14688,8 +15037,9 @@
       <c r="B346" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C346" s="0" t="s">
-        <v>7</v>
+      <c r="C346" s="0" t="str">
+        <f aca="false">CONCATENATE(A346,";",0)</f>
+        <v>114156;0</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14699,8 +15049,9 @@
       <c r="B347" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C347" s="0" t="s">
-        <v>7</v>
+      <c r="C347" s="0" t="str">
+        <f aca="false">CONCATENATE(A347,";",0)</f>
+        <v>118517;0</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14710,8 +15061,9 @@
       <c r="B348" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C348" s="0" t="s">
-        <v>7</v>
+      <c r="C348" s="0" t="str">
+        <f aca="false">CONCATENATE(A348,";",0)</f>
+        <v>118436;0</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14721,8 +15073,9 @@
       <c r="B349" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C349" s="0" t="s">
-        <v>7</v>
+      <c r="C349" s="0" t="str">
+        <f aca="false">CONCATENATE(A349,";",0)</f>
+        <v>114643;0</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14732,8 +15085,9 @@
       <c r="B350" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C350" s="0" t="s">
-        <v>7</v>
+      <c r="C350" s="0" t="str">
+        <f aca="false">CONCATENATE(A350,";",0)</f>
+        <v>114017;0</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14743,8 +15097,9 @@
       <c r="B351" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C351" s="0" t="s">
-        <v>7</v>
+      <c r="C351" s="0" t="str">
+        <f aca="false">CONCATENATE(A351,";",0)</f>
+        <v>118187;0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14754,8 +15109,9 @@
       <c r="B352" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C352" s="0" t="s">
-        <v>7</v>
+      <c r="C352" s="0" t="str">
+        <f aca="false">CONCATENATE(A352,";",0)</f>
+        <v>118370;0</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14765,8 +15121,9 @@
       <c r="B353" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C353" s="0" t="s">
-        <v>7</v>
+      <c r="C353" s="0" t="str">
+        <f aca="false">CONCATENATE(A353,";",0)</f>
+        <v>115616;0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14776,8 +15133,9 @@
       <c r="B354" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C354" s="0" t="s">
-        <v>7</v>
+      <c r="C354" s="0" t="str">
+        <f aca="false">CONCATENATE(A354,";",0)</f>
+        <v>114625;0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14787,8 +15145,9 @@
       <c r="B355" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C355" s="0" t="s">
-        <v>7</v>
+      <c r="C355" s="0" t="str">
+        <f aca="false">CONCATENATE(A355,";",0)</f>
+        <v>116987;0</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14798,8 +15157,9 @@
       <c r="B356" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C356" s="0" t="s">
-        <v>7</v>
+      <c r="C356" s="0" t="str">
+        <f aca="false">CONCATENATE(A356,";",0)</f>
+        <v>120877;0</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14809,8 +15169,9 @@
       <c r="B357" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C357" s="0" t="s">
-        <v>7</v>
+      <c r="C357" s="0" t="str">
+        <f aca="false">CONCATENATE(A357,";",0)</f>
+        <v>117272;0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14820,8 +15181,9 @@
       <c r="B358" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C358" s="0" t="s">
-        <v>7</v>
+      <c r="C358" s="0" t="str">
+        <f aca="false">CONCATENATE(A358,";",0)</f>
+        <v>115801;0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14831,8 +15193,9 @@
       <c r="B359" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C359" s="0" t="s">
-        <v>7</v>
+      <c r="C359" s="0" t="str">
+        <f aca="false">CONCATENATE(A359,";",0)</f>
+        <v>117753;0</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14842,8 +15205,9 @@
       <c r="B360" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C360" s="0" t="s">
-        <v>7</v>
+      <c r="C360" s="0" t="str">
+        <f aca="false">CONCATENATE(A360,";",0)</f>
+        <v>115533;0</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14853,8 +15217,9 @@
       <c r="B361" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C361" s="0" t="s">
-        <v>7</v>
+      <c r="C361" s="0" t="str">
+        <f aca="false">CONCATENATE(A361,";",0)</f>
+        <v>115024;0</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14864,8 +15229,9 @@
       <c r="B362" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C362" s="0" t="s">
-        <v>7</v>
+      <c r="C362" s="0" t="str">
+        <f aca="false">CONCATENATE(A362,";",0)</f>
+        <v>116875;0</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14875,8 +15241,9 @@
       <c r="B363" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C363" s="0" t="s">
-        <v>7</v>
+      <c r="C363" s="0" t="str">
+        <f aca="false">CONCATENATE(A363,";",0)</f>
+        <v>117633;0</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14886,8 +15253,9 @@
       <c r="B364" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C364" s="0" t="s">
-        <v>7</v>
+      <c r="C364" s="0" t="str">
+        <f aca="false">CONCATENATE(A364,";",0)</f>
+        <v>116778;0</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14897,8 +15265,9 @@
       <c r="B365" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C365" s="0" t="s">
-        <v>7</v>
+      <c r="C365" s="0" t="str">
+        <f aca="false">CONCATENATE(A365,";",0)</f>
+        <v>116421;0</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14908,8 +15277,9 @@
       <c r="B366" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C366" s="0" t="s">
-        <v>7</v>
+      <c r="C366" s="0" t="str">
+        <f aca="false">CONCATENATE(A366,";",0)</f>
+        <v>114855;0</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14919,8 +15289,9 @@
       <c r="B367" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C367" s="0" t="s">
-        <v>7</v>
+      <c r="C367" s="0" t="str">
+        <f aca="false">CONCATENATE(A367,";",0)</f>
+        <v>120834;0</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14930,8 +15301,9 @@
       <c r="B368" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C368" s="0" t="s">
-        <v>7</v>
+      <c r="C368" s="0" t="str">
+        <f aca="false">CONCATENATE(A368,";",0)</f>
+        <v>116960;0</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14941,8 +15313,9 @@
       <c r="B369" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C369" s="0" t="s">
-        <v>7</v>
+      <c r="C369" s="0" t="str">
+        <f aca="false">CONCATENATE(A369,";",0)</f>
+        <v>116931;0</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14952,8 +15325,9 @@
       <c r="B370" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C370" s="0" t="s">
-        <v>7</v>
+      <c r="C370" s="0" t="str">
+        <f aca="false">CONCATENATE(A370,";",0)</f>
+        <v>116906;0</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14963,8 +15337,9 @@
       <c r="B371" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C371" s="0" t="s">
-        <v>7</v>
+      <c r="C371" s="0" t="str">
+        <f aca="false">CONCATENATE(A371,";",0)</f>
+        <v>118583;0</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14974,8 +15349,9 @@
       <c r="B372" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C372" s="0" t="s">
-        <v>7</v>
+      <c r="C372" s="0" t="str">
+        <f aca="false">CONCATENATE(A372,";",0)</f>
+        <v>118662;0</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14985,8 +15361,9 @@
       <c r="B373" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C373" s="0" t="s">
-        <v>7</v>
+      <c r="C373" s="0" t="str">
+        <f aca="false">CONCATENATE(A373,";",0)</f>
+        <v>117634;0</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14996,8 +15373,9 @@
       <c r="B374" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C374" s="0" t="s">
-        <v>7</v>
+      <c r="C374" s="0" t="str">
+        <f aca="false">CONCATENATE(A374,";",0)</f>
+        <v>115889;0</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15007,8 +15385,9 @@
       <c r="B375" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C375" s="0" t="s">
-        <v>7</v>
+      <c r="C375" s="0" t="str">
+        <f aca="false">CONCATENATE(A375,";",0)</f>
+        <v>116279;0</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15018,8 +15397,9 @@
       <c r="B376" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C376" s="0" t="s">
-        <v>7</v>
+      <c r="C376" s="0" t="str">
+        <f aca="false">CONCATENATE(A376,";",0)</f>
+        <v>116193;0</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15029,8 +15409,9 @@
       <c r="B377" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C377" s="0" t="s">
-        <v>7</v>
+      <c r="C377" s="0" t="str">
+        <f aca="false">CONCATENATE(A377,";",0)</f>
+        <v>117038;0</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15040,8 +15421,9 @@
       <c r="B378" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C378" s="0" t="s">
-        <v>7</v>
+      <c r="C378" s="0" t="str">
+        <f aca="false">CONCATENATE(A378,";",0)</f>
+        <v>117045;0</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15051,8 +15433,9 @@
       <c r="B379" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C379" s="0" t="s">
-        <v>7</v>
+      <c r="C379" s="0" t="str">
+        <f aca="false">CONCATENATE(A379,";",0)</f>
+        <v>116654;0</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15062,8 +15445,9 @@
       <c r="B380" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C380" s="0" t="s">
-        <v>7</v>
+      <c r="C380" s="0" t="str">
+        <f aca="false">CONCATENATE(A380,";",0)</f>
+        <v>116921;0</v>
       </c>
     </row>
   </sheetData>
@@ -15082,10 +15466,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:C380"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A354" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D381" activeCellId="0" sqref="D380:D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15097,8 +15481,12 @@
       <c r="A1" s="5" t="n">
         <v>116544</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>7</v>
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="str">
+        <f aca="false">CONCATENATE(A1, ";", 1)</f>
+        <v>116544;1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15108,6 +15496,10 @@
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="0" t="str">
+        <f aca="false">CONCATENATE(A2, ";", 1)</f>
+        <v>115549;1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
@@ -15116,6 +15508,10 @@
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="0" t="str">
+        <f aca="false">CONCATENATE(A3, ";", 1)</f>
+        <v>118365;1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
@@ -15124,6 +15520,10 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="0" t="str">
+        <f aca="false">CONCATENATE(A4, ";", 1)</f>
+        <v>116842;1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
@@ -15132,6 +15532,10 @@
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="0" t="str">
+        <f aca="false">CONCATENATE(A5, ";", 1)</f>
+        <v>114449;1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -15140,6 +15544,10 @@
       <c r="B6" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="0" t="str">
+        <f aca="false">CONCATENATE(A6, ";", 1)</f>
+        <v>117141;1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -15148,6 +15556,10 @@
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="0" t="str">
+        <f aca="false">CONCATENATE(A7, ";", 1)</f>
+        <v>115639;1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -15156,6 +15568,10 @@
       <c r="B8" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="0" t="str">
+        <f aca="false">CONCATENATE(A8, ";", 1)</f>
+        <v>114273;1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -15164,6 +15580,10 @@
       <c r="B9" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="0" t="str">
+        <f aca="false">CONCATENATE(A9, ";", 1)</f>
+        <v>114279;1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
@@ -15172,6 +15592,10 @@
       <c r="B10" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C10" s="0" t="str">
+        <f aca="false">CONCATENATE(A10, ";", 1)</f>
+        <v>116958;1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -15180,6 +15604,10 @@
       <c r="B11" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C11" s="0" t="str">
+        <f aca="false">CONCATENATE(A11, ";", 1)</f>
+        <v>115167;1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
@@ -15188,6 +15616,10 @@
       <c r="B12" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C12" s="0" t="str">
+        <f aca="false">CONCATENATE(A12, ";", 1)</f>
+        <v>114693;1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
@@ -15196,6 +15628,10 @@
       <c r="B13" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C13" s="0" t="str">
+        <f aca="false">CONCATENATE(A13, ";", 1)</f>
+        <v>116849;1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
@@ -15204,6 +15640,10 @@
       <c r="B14" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C14" s="0" t="str">
+        <f aca="false">CONCATENATE(A14, ";", 1)</f>
+        <v>114244;1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
@@ -15212,6 +15652,10 @@
       <c r="B15" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C15" s="0" t="str">
+        <f aca="false">CONCATENATE(A15, ";", 1)</f>
+        <v>116361;1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
@@ -15220,6 +15664,10 @@
       <c r="B16" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C16" s="0" t="str">
+        <f aca="false">CONCATENATE(A16, ";", 1)</f>
+        <v>118150;1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -15228,6 +15676,10 @@
       <c r="B17" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C17" s="0" t="str">
+        <f aca="false">CONCATENATE(A17, ";", 1)</f>
+        <v>120850;1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
@@ -15236,6 +15688,10 @@
       <c r="B18" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C18" s="0" t="str">
+        <f aca="false">CONCATENATE(A18, ";", 1)</f>
+        <v>118544;1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -15244,6 +15700,10 @@
       <c r="B19" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C19" s="0" t="str">
+        <f aca="false">CONCATENATE(A19, ";", 1)</f>
+        <v>115083;1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
@@ -15252,6 +15712,10 @@
       <c r="B20" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="0" t="str">
+        <f aca="false">CONCATENATE(A20, ";", 1)</f>
+        <v>116883;1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
@@ -15260,6 +15724,10 @@
       <c r="B21" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C21" s="0" t="str">
+        <f aca="false">CONCATENATE(A21, ";", 1)</f>
+        <v>115484;1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -15268,6 +15736,10 @@
       <c r="B22" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C22" s="0" t="str">
+        <f aca="false">CONCATENATE(A22, ";", 1)</f>
+        <v>120878;1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
@@ -15276,6 +15748,10 @@
       <c r="B23" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C23" s="0" t="str">
+        <f aca="false">CONCATENATE(A23, ";", 1)</f>
+        <v>115112;1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
@@ -15284,6 +15760,10 @@
       <c r="B24" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C24" s="0" t="str">
+        <f aca="false">CONCATENATE(A24, ";", 1)</f>
+        <v>115198;1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
@@ -15292,6 +15772,10 @@
       <c r="B25" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C25" s="0" t="str">
+        <f aca="false">CONCATENATE(A25, ";", 1)</f>
+        <v>115232;1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
@@ -15300,6 +15784,10 @@
       <c r="B26" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C26" s="0" t="str">
+        <f aca="false">CONCATENATE(A26, ";", 1)</f>
+        <v>118207;1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
@@ -15308,6 +15796,10 @@
       <c r="B27" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C27" s="0" t="str">
+        <f aca="false">CONCATENATE(A27, ";", 1)</f>
+        <v>117245;1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
@@ -15316,6 +15808,10 @@
       <c r="B28" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C28" s="0" t="str">
+        <f aca="false">CONCATENATE(A28, ";", 1)</f>
+        <v>115652;1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
@@ -15324,6 +15820,10 @@
       <c r="B29" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C29" s="0" t="str">
+        <f aca="false">CONCATENATE(A29, ";", 1)</f>
+        <v>116894;1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
@@ -15332,6 +15832,10 @@
       <c r="B30" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C30" s="0" t="str">
+        <f aca="false">CONCATENATE(A30, ";", 1)</f>
+        <v>115755;1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
@@ -15340,6 +15844,10 @@
       <c r="B31" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C31" s="0" t="str">
+        <f aca="false">CONCATENATE(A31, ";", 1)</f>
+        <v>118501;1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
@@ -15348,6 +15856,10 @@
       <c r="B32" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C32" s="0" t="str">
+        <f aca="false">CONCATENATE(A32, ";", 1)</f>
+        <v>115483;1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
@@ -15356,6 +15868,10 @@
       <c r="B33" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C33" s="0" t="str">
+        <f aca="false">CONCATENATE(A33, ";", 1)</f>
+        <v>114805;1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
@@ -15364,6 +15880,10 @@
       <c r="B34" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C34" s="0" t="str">
+        <f aca="false">CONCATENATE(A34, ";", 1)</f>
+        <v>115386;1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
@@ -15372,6 +15892,10 @@
       <c r="B35" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C35" s="0" t="str">
+        <f aca="false">CONCATENATE(A35, ";", 1)</f>
+        <v>115266;1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
@@ -15380,6 +15904,10 @@
       <c r="B36" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C36" s="0" t="str">
+        <f aca="false">CONCATENATE(A36, ";", 1)</f>
+        <v>115946;1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
@@ -15388,6 +15916,10 @@
       <c r="B37" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C37" s="0" t="str">
+        <f aca="false">CONCATENATE(A37, ";", 1)</f>
+        <v>117428;1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
@@ -15396,6 +15928,10 @@
       <c r="B38" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C38" s="0" t="str">
+        <f aca="false">CONCATENATE(A38, ";", 1)</f>
+        <v>117412;1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
@@ -15404,6 +15940,10 @@
       <c r="B39" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C39" s="0" t="str">
+        <f aca="false">CONCATENATE(A39, ";", 1)</f>
+        <v>118455;1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
@@ -15412,6 +15952,10 @@
       <c r="B40" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C40" s="0" t="str">
+        <f aca="false">CONCATENATE(A40, ";", 1)</f>
+        <v>118575;1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
@@ -15420,6 +15964,10 @@
       <c r="B41" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C41" s="0" t="str">
+        <f aca="false">CONCATENATE(A41, ";", 1)</f>
+        <v>118340;1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
@@ -15428,6 +15976,10 @@
       <c r="B42" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C42" s="0" t="str">
+        <f aca="false">CONCATENATE(A42, ";", 1)</f>
+        <v>118175;1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
@@ -15436,6 +15988,10 @@
       <c r="B43" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C43" s="0" t="str">
+        <f aca="false">CONCATENATE(A43, ";", 1)</f>
+        <v>118472;1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
@@ -15444,6 +16000,10 @@
       <c r="B44" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C44" s="0" t="str">
+        <f aca="false">CONCATENATE(A44, ";", 1)</f>
+        <v>115146;1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
@@ -15452,6 +16012,10 @@
       <c r="B45" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C45" s="0" t="str">
+        <f aca="false">CONCATENATE(A45, ";", 1)</f>
+        <v>116955;1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
@@ -15460,6 +16024,10 @@
       <c r="B46" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C46" s="0" t="str">
+        <f aca="false">CONCATENATE(A46, ";", 1)</f>
+        <v>114703;1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
@@ -15468,6 +16036,10 @@
       <c r="B47" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C47" s="0" t="str">
+        <f aca="false">CONCATENATE(A47, ";", 1)</f>
+        <v>114373;1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="n">
@@ -15476,6 +16048,10 @@
       <c r="B48" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C48" s="0" t="str">
+        <f aca="false">CONCATENATE(A48, ";", 1)</f>
+        <v>118228;1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="n">
@@ -15484,6 +16060,10 @@
       <c r="B49" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C49" s="0" t="str">
+        <f aca="false">CONCATENATE(A49, ";", 1)</f>
+        <v>114875;1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="n">
@@ -15492,6 +16072,10 @@
       <c r="B50" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C50" s="0" t="str">
+        <f aca="false">CONCATENATE(A50, ";", 1)</f>
+        <v>114144;1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="n">
@@ -15500,6 +16084,10 @@
       <c r="B51" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C51" s="0" t="str">
+        <f aca="false">CONCATENATE(A51, ";", 1)</f>
+        <v>118075;1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="n">
@@ -15508,6 +16096,10 @@
       <c r="B52" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C52" s="0" t="str">
+        <f aca="false">CONCATENATE(A52, ";", 1)</f>
+        <v>119751;1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="n">
@@ -15516,6 +16108,10 @@
       <c r="B53" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C53" s="0" t="str">
+        <f aca="false">CONCATENATE(A53, ";", 1)</f>
+        <v>118273;1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="n">
@@ -15524,6 +16120,10 @@
       <c r="B54" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C54" s="0" t="str">
+        <f aca="false">CONCATENATE(A54, ";", 1)</f>
+        <v>118490;1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -15532,6 +16132,10 @@
       <c r="B55" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C55" s="0" t="str">
+        <f aca="false">CONCATENATE(A55, ";", 1)</f>
+        <v>116873;1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="n">
@@ -15540,6 +16144,10 @@
       <c r="B56" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C56" s="0" t="str">
+        <f aca="false">CONCATENATE(A56, ";", 1)</f>
+        <v>116748;1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -15548,6 +16156,10 @@
       <c r="B57" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C57" s="0" t="str">
+        <f aca="false">CONCATENATE(A57, ";", 1)</f>
+        <v>113770;1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -15556,6 +16168,10 @@
       <c r="B58" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C58" s="0" t="str">
+        <f aca="false">CONCATENATE(A58, ";", 1)</f>
+        <v>113959;1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -15564,6 +16180,10 @@
       <c r="B59" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C59" s="0" t="str">
+        <f aca="false">CONCATENATE(A59, ";", 1)</f>
+        <v>113667;1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -15572,6 +16192,10 @@
       <c r="B60" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C60" s="0" t="str">
+        <f aca="false">CONCATENATE(A60, ";", 1)</f>
+        <v>113881;1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="n">
@@ -15580,6 +16204,10 @@
       <c r="B61" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C61" s="0" t="str">
+        <f aca="false">CONCATENATE(A61, ";", 1)</f>
+        <v>116023;1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="n">
@@ -15588,6 +16216,10 @@
       <c r="B62" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C62" s="0" t="str">
+        <f aca="false">CONCATENATE(A62, ";", 1)</f>
+        <v>117818;1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="n">
@@ -15596,6 +16228,10 @@
       <c r="B63" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C63" s="0" t="str">
+        <f aca="false">CONCATENATE(A63, ";", 1)</f>
+        <v>114894;1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="n">
@@ -15604,6 +16240,10 @@
       <c r="B64" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C64" s="0" t="str">
+        <f aca="false">CONCATENATE(A64, ";", 1)</f>
+        <v>117779;1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="n">
@@ -15612,6 +16252,10 @@
       <c r="B65" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C65" s="0" t="str">
+        <f aca="false">CONCATENATE(A65, ";", 1)</f>
+        <v>116176;1</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="n">
@@ -15620,6 +16264,10 @@
       <c r="B66" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C66" s="0" t="str">
+        <f aca="false">CONCATENATE(A66, ";", 1)</f>
+        <v>117866;1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
@@ -15628,6 +16276,10 @@
       <c r="B67" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C67" s="0" t="str">
+        <f aca="false">CONCATENATE(A67, ";", 1)</f>
+        <v>117643;1</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
@@ -15636,6 +16288,10 @@
       <c r="B68" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C68" s="0" t="str">
+        <f aca="false">CONCATENATE(A68, ";", 1)</f>
+        <v>115597;1</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
@@ -15644,6 +16300,10 @@
       <c r="B69" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C69" s="0" t="str">
+        <f aca="false">CONCATENATE(A69, ";", 1)</f>
+        <v>118008;1</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
@@ -15652,6 +16312,10 @@
       <c r="B70" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C70" s="0" t="str">
+        <f aca="false">CONCATENATE(A70, ";", 1)</f>
+        <v>118546;1</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
@@ -15660,6 +16324,10 @@
       <c r="B71" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C71" s="0" t="str">
+        <f aca="false">CONCATENATE(A71, ";", 1)</f>
+        <v>116914;1</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="n">
@@ -15668,6 +16336,10 @@
       <c r="B72" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C72" s="0" t="str">
+        <f aca="false">CONCATENATE(A72, ";", 1)</f>
+        <v>114056;1</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="n">
@@ -15676,6 +16348,10 @@
       <c r="B73" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C73" s="0" t="str">
+        <f aca="false">CONCATENATE(A73, ";", 1)</f>
+        <v>116128;1</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="n">
@@ -15684,6 +16360,10 @@
       <c r="B74" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C74" s="0" t="str">
+        <f aca="false">CONCATENATE(A74, ";", 1)</f>
+        <v>117858;1</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="n">
@@ -15692,6 +16372,10 @@
       <c r="B75" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C75" s="0" t="str">
+        <f aca="false">CONCATENATE(A75, ";", 1)</f>
+        <v>117892;1</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="n">
@@ -15700,6 +16384,10 @@
       <c r="B76" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C76" s="0" t="str">
+        <f aca="false">CONCATENATE(A76, ";", 1)</f>
+        <v>115381;1</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="n">
@@ -15708,6 +16396,10 @@
       <c r="B77" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C77" s="0" t="str">
+        <f aca="false">CONCATENATE(A77, ";", 1)</f>
+        <v>117394;1</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="n">
@@ -15716,6 +16408,10 @@
       <c r="B78" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C78" s="0" t="str">
+        <f aca="false">CONCATENATE(A78, ";", 1)</f>
+        <v>115485;1</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="n">
@@ -15724,6 +16420,10 @@
       <c r="B79" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C79" s="0" t="str">
+        <f aca="false">CONCATENATE(A79, ";", 1)</f>
+        <v>119731;1</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="n">
@@ -15732,6 +16432,10 @@
       <c r="B80" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C80" s="0" t="str">
+        <f aca="false">CONCATENATE(A80, ";", 1)</f>
+        <v>120844;1</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="n">
@@ -15740,6 +16444,10 @@
       <c r="B81" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C81" s="0" t="str">
+        <f aca="false">CONCATENATE(A81, ";", 1)</f>
+        <v>118345;1</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="n">
@@ -15748,6 +16456,10 @@
       <c r="B82" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C82" s="0" t="str">
+        <f aca="false">CONCATENATE(A82, ";", 1)</f>
+        <v>120911;1</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="n">
@@ -15756,6 +16468,10 @@
       <c r="B83" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C83" s="0" t="str">
+        <f aca="false">CONCATENATE(A83, ";", 1)</f>
+        <v>116693;1</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="n">
@@ -15764,6 +16480,10 @@
       <c r="B84" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C84" s="0" t="str">
+        <f aca="false">CONCATENATE(A84, ";", 1)</f>
+        <v>117236;1</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="n">
@@ -15772,6 +16492,10 @@
       <c r="B85" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C85" s="0" t="str">
+        <f aca="false">CONCATENATE(A85, ";", 1)</f>
+        <v>117922;1</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="n">
@@ -15780,6 +16504,10 @@
       <c r="B86" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C86" s="0" t="str">
+        <f aca="false">CONCATENATE(A86, ";", 1)</f>
+        <v>114843;1</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="n">
@@ -15788,6 +16516,10 @@
       <c r="B87" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C87" s="0" t="str">
+        <f aca="false">CONCATENATE(A87, ";", 1)</f>
+        <v>117355;1</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="n">
@@ -15796,6 +16528,10 @@
       <c r="B88" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C88" s="0" t="str">
+        <f aca="false">CONCATENATE(A88, ";", 1)</f>
+        <v>118674;1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="n">
@@ -15804,6 +16540,10 @@
       <c r="B89" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C89" s="0" t="str">
+        <f aca="false">CONCATENATE(A89, ";", 1)</f>
+        <v>114761;1</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="n">
@@ -15812,6 +16552,10 @@
       <c r="B90" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C90" s="0" t="str">
+        <f aca="false">CONCATENATE(A90, ";", 1)</f>
+        <v>113903;1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="n">
@@ -15820,6 +16564,10 @@
       <c r="B91" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C91" s="0" t="str">
+        <f aca="false">CONCATENATE(A91, ";", 1)</f>
+        <v>115084;1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="n">
@@ -15828,6 +16576,10 @@
       <c r="B92" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C92" s="0" t="str">
+        <f aca="false">CONCATENATE(A92, ";", 1)</f>
+        <v>118505;1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="n">
@@ -15836,6 +16588,10 @@
       <c r="B93" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C93" s="0" t="str">
+        <f aca="false">CONCATENATE(A93, ";", 1)</f>
+        <v>115649;1</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="n">
@@ -15844,6 +16600,10 @@
       <c r="B94" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C94" s="0" t="str">
+        <f aca="false">CONCATENATE(A94, ";", 1)</f>
+        <v>116366;1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="n">
@@ -15852,6 +16612,10 @@
       <c r="B95" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C95" s="0" t="str">
+        <f aca="false">CONCATENATE(A95, ";", 1)</f>
+        <v>118124;1</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="n">
@@ -15860,6 +16624,10 @@
       <c r="B96" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C96" s="0" t="str">
+        <f aca="false">CONCATENATE(A96, ";", 1)</f>
+        <v>117172;1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="n">
@@ -15868,6 +16636,10 @@
       <c r="B97" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C97" s="0" t="str">
+        <f aca="false">CONCATENATE(A97, ";", 1)</f>
+        <v>113998;1</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="n">
@@ -15876,6 +16648,10 @@
       <c r="B98" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C98" s="0" t="str">
+        <f aca="false">CONCATENATE(A98, ";", 1)</f>
+        <v>117398;1</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="n">
@@ -15884,6 +16660,10 @@
       <c r="B99" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C99" s="0" t="str">
+        <f aca="false">CONCATENATE(A99, ";", 1)</f>
+        <v>114098;1</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="n">
@@ -15892,6 +16672,10 @@
       <c r="B100" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C100" s="0" t="str">
+        <f aca="false">CONCATENATE(A100, ";", 1)</f>
+        <v>117138;1</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="n">
@@ -15900,6 +16684,10 @@
       <c r="B101" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C101" s="0" t="str">
+        <f aca="false">CONCATENATE(A101, ";", 1)</f>
+        <v>117258;1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="n">
@@ -15908,6 +16696,10 @@
       <c r="B102" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C102" s="0" t="str">
+        <f aca="false">CONCATENATE(A102, ";", 1)</f>
+        <v>116956;1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="n">
@@ -15916,6 +16708,10 @@
       <c r="B103" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C103" s="0" t="str">
+        <f aca="false">CONCATENATE(A103, ";", 1)</f>
+        <v>117776;1</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="n">
@@ -15924,6 +16720,10 @@
       <c r="B104" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C104" s="0" t="str">
+        <f aca="false">CONCATENATE(A104, ";", 1)</f>
+        <v>115314;1</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="n">
@@ -15932,6 +16732,10 @@
       <c r="B105" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C105" s="0" t="str">
+        <f aca="false">CONCATENATE(A105, ";", 1)</f>
+        <v>117237;1</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="n">
@@ -15940,6 +16744,10 @@
       <c r="B106" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C106" s="0" t="str">
+        <f aca="false">CONCATENATE(A106, ";", 1)</f>
+        <v>117268;1</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="n">
@@ -15948,6 +16756,10 @@
       <c r="B107" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C107" s="0" t="str">
+        <f aca="false">CONCATENATE(A107, ";", 1)</f>
+        <v>117368;1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="n">
@@ -15956,6 +16768,10 @@
       <c r="B108" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C108" s="0" t="str">
+        <f aca="false">CONCATENATE(A108, ";", 1)</f>
+        <v>117980;1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="n">
@@ -15964,6 +16780,10 @@
       <c r="B109" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C109" s="0" t="str">
+        <f aca="false">CONCATENATE(A109, ";", 1)</f>
+        <v>115525;1</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="n">
@@ -15972,6 +16792,10 @@
       <c r="B110" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C110" s="0" t="str">
+        <f aca="false">CONCATENATE(A110, ";", 1)</f>
+        <v>117562;1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="n">
@@ -15980,6 +16804,10 @@
       <c r="B111" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C111" s="0" t="str">
+        <f aca="false">CONCATENATE(A111, ";", 1)</f>
+        <v>116779;1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="n">
@@ -15988,6 +16816,10 @@
       <c r="B112" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C112" s="0" t="str">
+        <f aca="false">CONCATENATE(A112, ";", 1)</f>
+        <v>115850;1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="n">
@@ -15996,6 +16828,10 @@
       <c r="B113" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C113" s="0" t="str">
+        <f aca="false">CONCATENATE(A113, ";", 1)</f>
+        <v>116808;1</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="n">
@@ -16004,6 +16840,10 @@
       <c r="B114" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C114" s="0" t="str">
+        <f aca="false">CONCATENATE(A114, ";", 1)</f>
+        <v>119692;1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
@@ -16012,6 +16852,10 @@
       <c r="B115" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C115" s="0" t="str">
+        <f aca="false">CONCATENATE(A115, ";", 1)</f>
+        <v>115808;1</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="n">
@@ -16020,6 +16864,10 @@
       <c r="B116" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C116" s="0" t="str">
+        <f aca="false">CONCATENATE(A116, ";", 1)</f>
+        <v>113761;1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
@@ -16028,6 +16876,10 @@
       <c r="B117" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C117" s="0" t="str">
+        <f aca="false">CONCATENATE(A117, ";", 1)</f>
+        <v>114742;1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
@@ -16036,6 +16888,10 @@
       <c r="B118" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C118" s="0" t="str">
+        <f aca="false">CONCATENATE(A118, ";", 1)</f>
+        <v>115924;1</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
@@ -16044,6 +16900,10 @@
       <c r="B119" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C119" s="0" t="str">
+        <f aca="false">CONCATENATE(A119, ";", 1)</f>
+        <v>113756;1</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
@@ -16052,6 +16912,10 @@
       <c r="B120" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C120" s="0" t="str">
+        <f aca="false">CONCATENATE(A120, ";", 1)</f>
+        <v>116949;1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="n">
@@ -16060,6 +16924,10 @@
       <c r="B121" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C121" s="0" t="str">
+        <f aca="false">CONCATENATE(A121, ";", 1)</f>
+        <v>115760;1</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="n">
@@ -16068,6 +16936,10 @@
       <c r="B122" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C122" s="0" t="str">
+        <f aca="false">CONCATENATE(A122, ";", 1)</f>
+        <v>117125;1</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="n">
@@ -16076,6 +16948,10 @@
       <c r="B123" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C123" s="0" t="str">
+        <f aca="false">CONCATENATE(A123, ";", 1)</f>
+        <v>118400;1</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="n">
@@ -16084,6 +16960,10 @@
       <c r="B124" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C124" s="0" t="str">
+        <f aca="false">CONCATENATE(A124, ";", 1)</f>
+        <v>116533;1</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="n">
@@ -16092,6 +16972,10 @@
       <c r="B125" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C125" s="0" t="str">
+        <f aca="false">CONCATENATE(A125, ";", 1)</f>
+        <v>116609;1</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="n">
@@ -16100,6 +16984,10 @@
       <c r="B126" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C126" s="0" t="str">
+        <f aca="false">CONCATENATE(A126, ";", 1)</f>
+        <v>118074;1</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="n">
@@ -16108,6 +16996,10 @@
       <c r="B127" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C127" s="0" t="str">
+        <f aca="false">CONCATENATE(A127, ";", 1)</f>
+        <v>116531;1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="n">
@@ -16116,6 +17008,10 @@
       <c r="B128" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C128" s="0" t="str">
+        <f aca="false">CONCATENATE(A128, ";", 1)</f>
+        <v>117908;1</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="n">
@@ -16124,6 +17020,10 @@
       <c r="B129" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C129" s="0" t="str">
+        <f aca="false">CONCATENATE(A129, ";", 1)</f>
+        <v>115306;1</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="n">
@@ -16132,6 +17032,10 @@
       <c r="B130" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C130" s="0" t="str">
+        <f aca="false">CONCATENATE(A130, ";", 1)</f>
+        <v>118443;1</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="n">
@@ -16140,6 +17044,10 @@
       <c r="B131" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C131" s="0" t="str">
+        <f aca="false">CONCATENATE(A131, ";", 1)</f>
+        <v>115368;1</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="n">
@@ -16148,6 +17056,10 @@
       <c r="B132" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C132" s="0" t="str">
+        <f aca="false">CONCATENATE(A132, ";", 1)</f>
+        <v>116780;1</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="n">
@@ -16156,6 +17068,10 @@
       <c r="B133" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C133" s="0" t="str">
+        <f aca="false">CONCATENATE(A133, ";", 1)</f>
+        <v>116393;1</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="n">
@@ -16164,6 +17080,10 @@
       <c r="B134" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C134" s="0" t="str">
+        <f aca="false">CONCATENATE(A134, ";", 1)</f>
+        <v>114226;1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="n">
@@ -16172,6 +17092,10 @@
       <c r="B135" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C135" s="0" t="str">
+        <f aca="false">CONCATENATE(A135, ";", 1)</f>
+        <v>115527;1</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="n">
@@ -16180,6 +17104,10 @@
       <c r="B136" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C136" s="0" t="str">
+        <f aca="false">CONCATENATE(A136, ";", 1)</f>
+        <v>117249;1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="n">
@@ -16188,6 +17116,10 @@
       <c r="B137" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C137" s="0" t="str">
+        <f aca="false">CONCATENATE(A137, ";", 1)</f>
+        <v>114991;1</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="n">
@@ -16196,6 +17128,10 @@
       <c r="B138" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C138" s="0" t="str">
+        <f aca="false">CONCATENATE(A138, ";", 1)</f>
+        <v>118211;1</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="n">
@@ -16204,6 +17140,10 @@
       <c r="B139" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C139" s="0" t="str">
+        <f aca="false">CONCATENATE(A139, ";", 1)</f>
+        <v>116396;1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="n">
@@ -16212,6 +17152,10 @@
       <c r="B140" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C140" s="0" t="str">
+        <f aca="false">CONCATENATE(A140, ";", 1)</f>
+        <v>114088;1</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="n">
@@ -16220,6 +17164,10 @@
       <c r="B141" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C141" s="0" t="str">
+        <f aca="false">CONCATENATE(A141, ";", 1)</f>
+        <v>120900;1</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="n">
@@ -16228,6 +17176,10 @@
       <c r="B142" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C142" s="0" t="str">
+        <f aca="false">CONCATENATE(A142, ";", 1)</f>
+        <v>115900;1</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="n">
@@ -16236,6 +17188,10 @@
       <c r="B143" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C143" s="0" t="str">
+        <f aca="false">CONCATENATE(A143, ";", 1)</f>
+        <v>114246;1</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="n">
@@ -16244,6 +17200,10 @@
       <c r="B144" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C144" s="0" t="str">
+        <f aca="false">CONCATENATE(A144, ";", 1)</f>
+        <v>117755;1</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="n">
@@ -16252,6 +17212,10 @@
       <c r="B145" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C145" s="0" t="str">
+        <f aca="false">CONCATENATE(A145, ";", 1)</f>
+        <v>114420;1</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="n">
@@ -16260,6 +17224,10 @@
       <c r="B146" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C146" s="0" t="str">
+        <f aca="false">CONCATENATE(A146, ";", 1)</f>
+        <v>114837;1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="n">
@@ -16268,6 +17236,10 @@
       <c r="B147" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C147" s="0" t="str">
+        <f aca="false">CONCATENATE(A147, ";", 1)</f>
+        <v>117091;1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="n">
@@ -16276,6 +17248,10 @@
       <c r="B148" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C148" s="0" t="str">
+        <f aca="false">CONCATENATE(A148, ";", 1)</f>
+        <v>114016;1</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="n">
@@ -16284,6 +17260,10 @@
       <c r="B149" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C149" s="0" t="str">
+        <f aca="false">CONCATENATE(A149, ";", 1)</f>
+        <v>118277;1</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="n">
@@ -16292,6 +17272,10 @@
       <c r="B150" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C150" s="0" t="str">
+        <f aca="false">CONCATENATE(A150, ";", 1)</f>
+        <v>118574;1</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="n">
@@ -16300,6 +17284,10 @@
       <c r="B151" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C151" s="0" t="str">
+        <f aca="false">CONCATENATE(A151, ";", 1)</f>
+        <v>116991;1</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="n">
@@ -16308,6 +17296,10 @@
       <c r="B152" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C152" s="0" t="str">
+        <f aca="false">CONCATENATE(A152, ";", 1)</f>
+        <v>114860;1</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="n">
@@ -16316,6 +17308,10 @@
       <c r="B153" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C153" s="0" t="str">
+        <f aca="false">CONCATENATE(A153, ";", 1)</f>
+        <v>118502;1</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="n">
@@ -16324,6 +17320,10 @@
       <c r="B154" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C154" s="0" t="str">
+        <f aca="false">CONCATENATE(A154, ";", 1)</f>
+        <v>116385;1</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="n">
@@ -16332,6 +17332,10 @@
       <c r="B155" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C155" s="0" t="str">
+        <f aca="false">CONCATENATE(A155, ";", 1)</f>
+        <v>116242;1</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="n">
@@ -16340,6 +17344,10 @@
       <c r="B156" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C156" s="0" t="str">
+        <f aca="false">CONCATENATE(A156, ";", 1)</f>
+        <v>116608;1</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="n">
@@ -16348,6 +17356,10 @@
       <c r="B157" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C157" s="0" t="str">
+        <f aca="false">CONCATENATE(A157, ";", 1)</f>
+        <v>116990;1</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="n">
@@ -16356,6 +17368,10 @@
       <c r="B158" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C158" s="0" t="str">
+        <f aca="false">CONCATENATE(A158, ";", 1)</f>
+        <v>115304;1</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="n">
@@ -16364,6 +17380,10 @@
       <c r="B159" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C159" s="0" t="str">
+        <f aca="false">CONCATENATE(A159, ";", 1)</f>
+        <v>114851;1</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="n">
@@ -16372,6 +17392,10 @@
       <c r="B160" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C160" s="0" t="str">
+        <f aca="false">CONCATENATE(A160, ";", 1)</f>
+        <v>115222;1</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="n">
@@ -16380,6 +17404,10 @@
       <c r="B161" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C161" s="0" t="str">
+        <f aca="false">CONCATENATE(A161, ";", 1)</f>
+        <v>118530;1</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="n">
@@ -16388,6 +17416,10 @@
       <c r="B162" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C162" s="0" t="str">
+        <f aca="false">CONCATENATE(A162, ";", 1)</f>
+        <v>118122;1</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="n">
@@ -16396,6 +17428,10 @@
       <c r="B163" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C163" s="0" t="str">
+        <f aca="false">CONCATENATE(A163, ";", 1)</f>
+        <v>115214;1</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="n">
@@ -16404,6 +17440,10 @@
       <c r="B164" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C164" s="0" t="str">
+        <f aca="false">CONCATENATE(A164, ";", 1)</f>
+        <v>114019;1</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="n">
@@ -16412,6 +17452,10 @@
       <c r="B165" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C165" s="0" t="str">
+        <f aca="false">CONCATENATE(A165, ";", 1)</f>
+        <v>116514;1</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="n">
@@ -16420,6 +17464,10 @@
       <c r="B166" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C166" s="0" t="str">
+        <f aca="false">CONCATENATE(A166, ";", 1)</f>
+        <v>117684;1</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="n">
@@ -16428,6 +17476,10 @@
       <c r="B167" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C167" s="0" t="str">
+        <f aca="false">CONCATENATE(A167, ";", 1)</f>
+        <v>117492;1</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="n">
@@ -16436,6 +17488,10 @@
       <c r="B168" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C168" s="0" t="str">
+        <f aca="false">CONCATENATE(A168, ";", 1)</f>
+        <v>117992;1</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="n">
@@ -16444,6 +17500,10 @@
       <c r="B169" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C169" s="0" t="str">
+        <f aca="false">CONCATENATE(A169, ";", 1)</f>
+        <v>114785;1</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="n">
@@ -16452,6 +17512,10 @@
       <c r="B170" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C170" s="0" t="str">
+        <f aca="false">CONCATENATE(A170, ";", 1)</f>
+        <v>117872;1</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="n">
@@ -16460,6 +17524,10 @@
       <c r="B171" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C171" s="0" t="str">
+        <f aca="false">CONCATENATE(A171, ";", 1)</f>
+        <v>115989;1</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="n">
@@ -16468,6 +17536,10 @@
       <c r="B172" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C172" s="0" t="str">
+        <f aca="false">CONCATENATE(A172, ";", 1)</f>
+        <v>114423;1</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="n">
@@ -16476,6 +17548,10 @@
       <c r="B173" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C173" s="0" t="str">
+        <f aca="false">CONCATENATE(A173, ";", 1)</f>
+        <v>117361;1</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="n">
@@ -16484,6 +17560,10 @@
       <c r="B174" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C174" s="0" t="str">
+        <f aca="false">CONCATENATE(A174, ";", 1)</f>
+        <v>116140;1</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
@@ -16492,6 +17572,10 @@
       <c r="B175" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C175" s="0" t="str">
+        <f aca="false">CONCATENATE(A175, ";", 1)</f>
+        <v>113993;1</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="n">
@@ -16500,6 +17584,10 @@
       <c r="B176" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C176" s="0" t="str">
+        <f aca="false">CONCATENATE(A176, ";", 1)</f>
+        <v>117794;1</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
@@ -16508,6 +17596,10 @@
       <c r="B177" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C177" s="0" t="str">
+        <f aca="false">CONCATENATE(A177, ";", 1)</f>
+        <v>113889;1</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
@@ -16516,6 +17608,10 @@
       <c r="B178" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C178" s="0" t="str">
+        <f aca="false">CONCATENATE(A178, ";", 1)</f>
+        <v>116123;1</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
@@ -16524,6 +17620,10 @@
       <c r="B179" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C179" s="0" t="str">
+        <f aca="false">CONCATENATE(A179, ";", 1)</f>
+        <v>116696;1</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
@@ -16532,6 +17632,10 @@
       <c r="B180" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C180" s="0" t="str">
+        <f aca="false">CONCATENATE(A180, ";", 1)</f>
+        <v>117605;1</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="n">
@@ -16540,6 +17644,10 @@
       <c r="B181" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C181" s="0" t="str">
+        <f aca="false">CONCATENATE(A181, ";", 1)</f>
+        <v>116550;1</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="n">
@@ -16548,6 +17656,10 @@
       <c r="B182" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C182" s="0" t="str">
+        <f aca="false">CONCATENATE(A182, ";", 1)</f>
+        <v>115881;1</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="n">
@@ -16556,6 +17668,10 @@
       <c r="B183" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C183" s="0" t="str">
+        <f aca="false">CONCATENATE(A183, ";", 1)</f>
+        <v>117341;1</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="n">
@@ -16564,6 +17680,10 @@
       <c r="B184" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C184" s="0" t="str">
+        <f aca="false">CONCATENATE(A184, ";", 1)</f>
+        <v>118387;1</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="n">
@@ -16572,6 +17692,10 @@
       <c r="B185" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C185" s="0" t="str">
+        <f aca="false">CONCATENATE(A185, ";", 1)</f>
+        <v>117343;1</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="n">
@@ -16580,6 +17704,10 @@
       <c r="B186" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C186" s="0" t="str">
+        <f aca="false">CONCATENATE(A186, ";", 1)</f>
+        <v>115593;1</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="n">
@@ -16588,6 +17716,10 @@
       <c r="B187" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C187" s="0" t="str">
+        <f aca="false">CONCATENATE(A187, ";", 1)</f>
+        <v>115681;1</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="n">
@@ -16596,6 +17728,10 @@
       <c r="B188" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C188" s="0" t="str">
+        <f aca="false">CONCATENATE(A188, ";", 1)</f>
+        <v>117334;1</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="n">
@@ -16604,6 +17740,10 @@
       <c r="B189" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C189" s="0" t="str">
+        <f aca="false">CONCATENATE(A189, ";", 1)</f>
+        <v>118112;1</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="n">
@@ -16612,6 +17752,10 @@
       <c r="B190" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C190" s="0" t="str">
+        <f aca="false">CONCATENATE(A190, ";", 1)</f>
+        <v>114479;1</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="n">
@@ -16620,6 +17764,10 @@
       <c r="B191" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C191" s="0" t="str">
+        <f aca="false">CONCATENATE(A191, ";", 1)</f>
+        <v>117332;1</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="n">
@@ -16628,6 +17776,10 @@
       <c r="B192" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C192" s="0" t="str">
+        <f aca="false">CONCATENATE(A192, ";", 1)</f>
+        <v>118281;1</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="n">
@@ -16636,6 +17788,10 @@
       <c r="B193" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C193" s="0" t="str">
+        <f aca="false">CONCATENATE(A193, ";", 1)</f>
+        <v>118538;1</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="n">
@@ -16644,6 +17800,10 @@
       <c r="B194" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C194" s="0" t="str">
+        <f aca="false">CONCATENATE(A194, ";", 1)</f>
+        <v>116856;1</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="n">
@@ -16652,6 +17812,10 @@
       <c r="B195" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C195" s="0" t="str">
+        <f aca="false">CONCATENATE(A195, ";", 1)</f>
+        <v>116035;1</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="n">
@@ -16660,6 +17824,10 @@
       <c r="B196" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C196" s="0" t="str">
+        <f aca="false">CONCATENATE(A196, ";", 1)</f>
+        <v>114781;1</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="n">
@@ -16668,6 +17836,10 @@
       <c r="B197" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C197" s="0" t="str">
+        <f aca="false">CONCATENATE(A197, ";", 1)</f>
+        <v>114409;1</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="n">
@@ -16676,6 +17848,10 @@
       <c r="B198" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C198" s="0" t="str">
+        <f aca="false">CONCATENATE(A198, ";", 1)</f>
+        <v>115132;1</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="n">
@@ -16684,6 +17860,10 @@
       <c r="B199" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C199" s="0" t="str">
+        <f aca="false">CONCATENATE(A199, ";", 1)</f>
+        <v>120921;1</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="n">
@@ -16692,6 +17872,10 @@
       <c r="B200" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C200" s="0" t="str">
+        <f aca="false">CONCATENATE(A200, ";", 1)</f>
+        <v>116188;1</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="n">
@@ -16700,6 +17884,10 @@
       <c r="B201" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C201" s="0" t="str">
+        <f aca="false">CONCATENATE(A201, ";", 1)</f>
+        <v>115513;1</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="n">
@@ -16708,6 +17896,10 @@
       <c r="B202" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C202" s="0" t="str">
+        <f aca="false">CONCATENATE(A202, ";", 1)</f>
+        <v>115391;1</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="n">
@@ -16716,6 +17908,10 @@
       <c r="B203" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C203" s="0" t="str">
+        <f aca="false">CONCATENATE(A203, ";", 1)</f>
+        <v>115784;1</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="n">
@@ -16724,6 +17920,10 @@
       <c r="B204" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C204" s="0" t="str">
+        <f aca="false">CONCATENATE(A204, ";", 1)</f>
+        <v>115631;1</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="n">
@@ -16732,6 +17932,10 @@
       <c r="B205" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C205" s="0" t="str">
+        <f aca="false">CONCATENATE(A205, ";", 1)</f>
+        <v>115705;1</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="n">
@@ -16740,6 +17944,10 @@
       <c r="B206" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C206" s="0" t="str">
+        <f aca="false">CONCATENATE(A206, ";", 1)</f>
+        <v>120888;1</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="n">
@@ -16748,6 +17956,10 @@
       <c r="B207" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C207" s="0" t="str">
+        <f aca="false">CONCATENATE(A207, ";", 1)</f>
+        <v>118668;1</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="n">
@@ -16756,6 +17968,10 @@
       <c r="B208" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C208" s="0" t="str">
+        <f aca="false">CONCATENATE(A208, ";", 1)</f>
+        <v>116754;1</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="n">
@@ -16764,6 +17980,10 @@
       <c r="B209" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C209" s="0" t="str">
+        <f aca="false">CONCATENATE(A209, ";", 1)</f>
+        <v>117537;1</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="n">
@@ -16772,6 +17992,10 @@
       <c r="B210" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C210" s="0" t="str">
+        <f aca="false">CONCATENATE(A210, ";", 1)</f>
+        <v>117199;1</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="n">
@@ -16780,6 +18004,10 @@
       <c r="B211" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C211" s="0" t="str">
+        <f aca="false">CONCATENATE(A211, ";", 1)</f>
+        <v>115091;1</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="n">
@@ -16788,6 +18016,10 @@
       <c r="B212" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C212" s="0" t="str">
+        <f aca="false">CONCATENATE(A212, ";", 1)</f>
+        <v>114075;1</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="n">
@@ -16796,6 +18028,10 @@
       <c r="B213" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C213" s="0" t="str">
+        <f aca="false">CONCATENATE(A213, ";", 1)</f>
+        <v>117327;1</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="n">
@@ -16804,6 +18040,10 @@
       <c r="B214" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C214" s="0" t="str">
+        <f aca="false">CONCATENATE(A214, ";", 1)</f>
+        <v>118234;1</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="n">
@@ -16812,6 +18052,10 @@
       <c r="B215" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C215" s="0" t="str">
+        <f aca="false">CONCATENATE(A215, ";", 1)</f>
+        <v>117176;1</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="n">
@@ -16820,6 +18064,10 @@
       <c r="B216" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C216" s="0" t="str">
+        <f aca="false">CONCATENATE(A216, ";", 1)</f>
+        <v>118080;1</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="n">
@@ -16828,6 +18076,10 @@
       <c r="B217" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C217" s="0" t="str">
+        <f aca="false">CONCATENATE(A217, ";", 1)</f>
+        <v>118526;1</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="n">
@@ -16836,6 +18088,10 @@
       <c r="B218" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C218" s="0" t="str">
+        <f aca="false">CONCATENATE(A218, ";", 1)</f>
+        <v>118310;1</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="n">
@@ -16844,6 +18100,10 @@
       <c r="B219" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C219" s="0" t="str">
+        <f aca="false">CONCATENATE(A219, ";", 1)</f>
+        <v>114268;1</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="n">
@@ -16852,6 +18112,10 @@
       <c r="B220" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C220" s="0" t="str">
+        <f aca="false">CONCATENATE(A220, ";", 1)</f>
+        <v>118563;1</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="n">
@@ -16860,6 +18124,10 @@
       <c r="B221" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C221" s="0" t="str">
+        <f aca="false">CONCATENATE(A221, ";", 1)</f>
+        <v>115765;1</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="n">
@@ -16868,6 +18136,10 @@
       <c r="B222" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C222" s="0" t="str">
+        <f aca="false">CONCATENATE(A222, ";", 1)</f>
+        <v>118102;1</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="n">
@@ -16876,6 +18148,10 @@
       <c r="B223" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C223" s="0" t="str">
+        <f aca="false">CONCATENATE(A223, ";", 1)</f>
+        <v>117548;1</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="n">
@@ -16884,6 +18160,10 @@
       <c r="B224" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C224" s="0" t="str">
+        <f aca="false">CONCATENATE(A224, ";", 1)</f>
+        <v>114488;1</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="n">
@@ -16892,6 +18172,10 @@
       <c r="B225" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C225" s="0" t="str">
+        <f aca="false">CONCATENATE(A225, ";", 1)</f>
+        <v>117115;1</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="n">
@@ -16900,6 +18184,10 @@
       <c r="B226" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C226" s="0" t="str">
+        <f aca="false">CONCATENATE(A226, ";", 1)</f>
+        <v>118586;1</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="n">
@@ -16908,6 +18196,10 @@
       <c r="B227" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C227" s="0" t="str">
+        <f aca="false">CONCATENATE(A227, ";", 1)</f>
+        <v>117037;1</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="8" t="n">
@@ -16916,6 +18208,10 @@
       <c r="B228" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C228" s="0" t="str">
+        <f aca="false">CONCATENATE(A228, ";", 1)</f>
+        <v>114346;1</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
@@ -16924,6 +18220,10 @@
       <c r="B229" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C229" s="0" t="str">
+        <f aca="false">CONCATENATE(A229, ";", 1)</f>
+        <v>116350;1</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="n">
@@ -16932,6 +18232,10 @@
       <c r="B230" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C230" s="0" t="str">
+        <f aca="false">CONCATENATE(A230, ";", 1)</f>
+        <v>113686;1</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="n">
@@ -16940,6 +18244,10 @@
       <c r="B231" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C231" s="0" t="str">
+        <f aca="false">CONCATENATE(A231, ";", 1)</f>
+        <v>115324;1</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="n">
@@ -16948,6 +18256,10 @@
       <c r="B232" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C232" s="0" t="str">
+        <f aca="false">CONCATENATE(A232, ";", 1)</f>
+        <v>118103;1</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="n">
@@ -16956,6 +18268,10 @@
       <c r="B233" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C233" s="0" t="str">
+        <f aca="false">CONCATENATE(A233, ";", 1)</f>
+        <v>115830;1</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="n">
@@ -16964,6 +18280,10 @@
       <c r="B234" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C234" s="0" t="str">
+        <f aca="false">CONCATENATE(A234, ";", 1)</f>
+        <v>118017;1</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="n">
@@ -16972,6 +18292,10 @@
       <c r="B235" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C235" s="0" t="str">
+        <f aca="false">CONCATENATE(A235, ";", 1)</f>
+        <v>118107;1</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5" t="n">
@@ -16980,6 +18304,10 @@
       <c r="B236" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C236" s="0" t="str">
+        <f aca="false">CONCATENATE(A236, ";", 1)</f>
+        <v>117374;1</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5" t="n">
@@ -16988,6 +18316,10 @@
       <c r="B237" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C237" s="0" t="str">
+        <f aca="false">CONCATENATE(A237, ";", 1)</f>
+        <v>114840;1</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5" t="n">
@@ -16996,6 +18328,10 @@
       <c r="B238" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C238" s="0" t="str">
+        <f aca="false">CONCATENATE(A238, ";", 1)</f>
+        <v>118522;1</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="n">
@@ -17004,6 +18340,10 @@
       <c r="B239" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C239" s="0" t="str">
+        <f aca="false">CONCATENATE(A239, ";", 1)</f>
+        <v>117666;1</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="n">
@@ -17012,6 +18352,10 @@
       <c r="B240" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C240" s="0" t="str">
+        <f aca="false">CONCATENATE(A240, ";", 1)</f>
+        <v>120919;1</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="n">
@@ -17020,6 +18364,10 @@
       <c r="B241" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C241" s="0" t="str">
+        <f aca="false">CONCATENATE(A241, ";", 1)</f>
+        <v>117346;1</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="n">
@@ -17028,6 +18376,10 @@
       <c r="B242" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C242" s="0" t="str">
+        <f aca="false">CONCATENATE(A242, ";", 1)</f>
+        <v>117876;1</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="n">
@@ -17036,6 +18388,10 @@
       <c r="B243" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C243" s="0" t="str">
+        <f aca="false">CONCATENATE(A243, ";", 1)</f>
+        <v>116782;1</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="n">
@@ -17044,6 +18400,10 @@
       <c r="B244" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C244" s="0" t="str">
+        <f aca="false">CONCATENATE(A244, ";", 1)</f>
+        <v>115710;1</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="n">
@@ -17052,6 +18412,10 @@
       <c r="B245" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C245" s="0" t="str">
+        <f aca="false">CONCATENATE(A245, ";", 1)</f>
+        <v>114947;1</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="n">
@@ -17060,6 +18424,10 @@
       <c r="B246" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C246" s="0" t="str">
+        <f aca="false">CONCATENATE(A246, ";", 1)</f>
+        <v>117288;1</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="n">
@@ -17068,6 +18436,10 @@
       <c r="B247" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C247" s="0" t="str">
+        <f aca="false">CONCATENATE(A247, ";", 1)</f>
+        <v>117686;1</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="n">
@@ -17076,6 +18448,10 @@
       <c r="B248" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C248" s="0" t="str">
+        <f aca="false">CONCATENATE(A248, ";", 1)</f>
+        <v>115217;1</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="n">
@@ -17084,6 +18460,10 @@
       <c r="B249" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C249" s="0" t="str">
+        <f aca="false">CONCATENATE(A249, ";", 1)</f>
+        <v>117282;1</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="n">
@@ -17092,6 +18472,10 @@
       <c r="B250" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C250" s="0" t="str">
+        <f aca="false">CONCATENATE(A250, ";", 1)</f>
+        <v>118381;1</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="n">
@@ -17100,6 +18484,10 @@
       <c r="B251" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C251" s="0" t="str">
+        <f aca="false">CONCATENATE(A251, ";", 1)</f>
+        <v>116588;1</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="n">
@@ -17108,6 +18496,10 @@
       <c r="B252" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C252" s="0" t="str">
+        <f aca="false">CONCATENATE(A252, ";", 1)</f>
+        <v>114546;1</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="n">
@@ -17116,6 +18508,10 @@
       <c r="B253" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C253" s="0" t="str">
+        <f aca="false">CONCATENATE(A253, ";", 1)</f>
+        <v>116963;1</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="n">
@@ -17124,6 +18520,10 @@
       <c r="B254" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C254" s="0" t="str">
+        <f aca="false">CONCATENATE(A254, ";", 1)</f>
+        <v>114964;1</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="n">
@@ -17132,6 +18532,10 @@
       <c r="B255" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C255" s="0" t="str">
+        <f aca="false">CONCATENATE(A255, ";", 1)</f>
+        <v>116324;1</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="n">
@@ -17140,6 +18544,10 @@
       <c r="B256" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C256" s="0" t="str">
+        <f aca="false">CONCATENATE(A256, ";", 1)</f>
+        <v>114399;1</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="n">
@@ -17148,6 +18556,10 @@
       <c r="B257" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C257" s="0" t="str">
+        <f aca="false">CONCATENATE(A257, ";", 1)</f>
+        <v>118293;1</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="n">
@@ -17156,6 +18568,10 @@
       <c r="B258" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C258" s="0" t="str">
+        <f aca="false">CONCATENATE(A258, ";", 1)</f>
+        <v>114792;1</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="n">
@@ -17164,6 +18580,10 @@
       <c r="B259" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C259" s="0" t="str">
+        <f aca="false">CONCATENATE(A259, ";", 1)</f>
+        <v>115372;1</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="n">
@@ -17172,6 +18592,10 @@
       <c r="B260" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C260" s="0" t="str">
+        <f aca="false">CONCATENATE(A260, ";", 1)</f>
+        <v>119749;1</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="n">
@@ -17180,6 +18604,10 @@
       <c r="B261" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C261" s="0" t="str">
+        <f aca="false">CONCATENATE(A261, ";", 1)</f>
+        <v>116228;1</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="8" t="n">
@@ -17188,6 +18616,10 @@
       <c r="B262" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C262" s="0" t="str">
+        <f aca="false">CONCATENATE(A262, ";", 1)</f>
+        <v>116803;1</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="n">
@@ -17196,6 +18628,10 @@
       <c r="B263" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C263" s="0" t="str">
+        <f aca="false">CONCATENATE(A263, ";", 1)</f>
+        <v>114569;1</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="n">
@@ -17204,6 +18640,10 @@
       <c r="B264" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C264" s="0" t="str">
+        <f aca="false">CONCATENATE(A264, ";", 1)</f>
+        <v>119679;1</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="n">
@@ -17212,6 +18652,10 @@
       <c r="B265" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C265" s="0" t="str">
+        <f aca="false">CONCATENATE(A265, ";", 1)</f>
+        <v>118366;1</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="8" t="n">
@@ -17220,6 +18664,10 @@
       <c r="B266" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C266" s="0" t="str">
+        <f aca="false">CONCATENATE(A266, ";", 1)</f>
+        <v>116697;1</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
@@ -17228,6 +18676,10 @@
       <c r="B267" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C267" s="0" t="str">
+        <f aca="false">CONCATENATE(A267, ";", 1)</f>
+        <v>116354;1</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="n">
@@ -17236,6 +18688,10 @@
       <c r="B268" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C268" s="0" t="str">
+        <f aca="false">CONCATENATE(A268, ";", 1)</f>
+        <v>113969;1</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
@@ -17244,6 +18700,10 @@
       <c r="B269" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C269" s="0" t="str">
+        <f aca="false">CONCATENATE(A269, ";", 1)</f>
+        <v>117856;1</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
@@ -17252,6 +18712,10 @@
       <c r="B270" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C270" s="0" t="str">
+        <f aca="false">CONCATENATE(A270, ";", 1)</f>
+        <v>115444;1</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="n">
@@ -17260,6 +18724,10 @@
       <c r="B271" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C271" s="0" t="str">
+        <f aca="false">CONCATENATE(A271, ";", 1)</f>
+        <v>114329;1</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="n">
@@ -17268,6 +18736,10 @@
       <c r="B272" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C272" s="0" t="str">
+        <f aca="false">CONCATENATE(A272, ";", 1)</f>
+        <v>115824;1</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="n">
@@ -17276,6 +18748,10 @@
       <c r="B273" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C273" s="0" t="str">
+        <f aca="false">CONCATENATE(A273, ";", 1)</f>
+        <v>114122;1</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="n">
@@ -17284,6 +18760,10 @@
       <c r="B274" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C274" s="0" t="str">
+        <f aca="false">CONCATENATE(A274, ";", 1)</f>
+        <v>114173;1</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="n">
@@ -17292,6 +18772,10 @@
       <c r="B275" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C275" s="0" t="str">
+        <f aca="false">CONCATENATE(A275, ";", 1)</f>
+        <v>116785;1</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="n">
@@ -17300,6 +18784,10 @@
       <c r="B276" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C276" s="0" t="str">
+        <f aca="false">CONCATENATE(A276, ";", 1)</f>
+        <v>114485;1</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="n">
@@ -17308,6 +18796,10 @@
       <c r="B277" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C277" s="0" t="str">
+        <f aca="false">CONCATENATE(A277, ";", 1)</f>
+        <v>118218;1</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="n">
@@ -17316,6 +18808,10 @@
       <c r="B278" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C278" s="0" t="str">
+        <f aca="false">CONCATENATE(A278, ";", 1)</f>
+        <v>114484;1</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5" t="n">
@@ -17324,6 +18820,10 @@
       <c r="B279" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C279" s="0" t="str">
+        <f aca="false">CONCATENATE(A279, ";", 1)</f>
+        <v>114029;1</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="n">
@@ -17332,6 +18832,10 @@
       <c r="B280" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C280" s="0" t="str">
+        <f aca="false">CONCATENATE(A280, ";", 1)</f>
+        <v>114035;1</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="n">
@@ -17340,6 +18844,10 @@
       <c r="B281" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C281" s="0" t="str">
+        <f aca="false">CONCATENATE(A281, ";", 1)</f>
+        <v>117065;1</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="n">
@@ -17348,6 +18856,10 @@
       <c r="B282" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C282" s="0" t="str">
+        <f aca="false">CONCATENATE(A282, ";", 1)</f>
+        <v>116131;1</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="n">
@@ -17356,6 +18868,10 @@
       <c r="B283" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C283" s="0" t="str">
+        <f aca="false">CONCATENATE(A283, ";", 1)</f>
+        <v>118679;1</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="n">
@@ -17364,6 +18880,10 @@
       <c r="B284" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C284" s="0" t="str">
+        <f aca="false">CONCATENATE(A284, ";", 1)</f>
+        <v>114153;1</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="n">
@@ -17372,6 +18892,10 @@
       <c r="B285" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C285" s="0" t="str">
+        <f aca="false">CONCATENATE(A285, ";", 1)</f>
+        <v>116362;1</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="n">
@@ -17380,6 +18904,10 @@
       <c r="B286" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C286" s="0" t="str">
+        <f aca="false">CONCATENATE(A286, ";", 1)</f>
+        <v>114218;1</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="n">
@@ -17388,6 +18916,10 @@
       <c r="B287" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C287" s="0" t="str">
+        <f aca="false">CONCATENATE(A287, ";", 1)</f>
+        <v>116942;1</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="n">
@@ -17396,6 +18928,10 @@
       <c r="B288" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C288" s="0" t="str">
+        <f aca="false">CONCATENATE(A288, ";", 1)</f>
+        <v>117107;1</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="n">
@@ -17404,6 +18940,10 @@
       <c r="B289" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C289" s="0" t="str">
+        <f aca="false">CONCATENATE(A289, ";", 1)</f>
+        <v>120858;1</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="n">
@@ -17412,6 +18952,10 @@
       <c r="B290" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C290" s="0" t="str">
+        <f aca="false">CONCATENATE(A290, ";", 1)</f>
+        <v>115068;1</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="n">
@@ -17420,6 +18964,10 @@
       <c r="B291" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C291" s="0" t="str">
+        <f aca="false">CONCATENATE(A291, ";", 1)</f>
+        <v>115902;1</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="n">
@@ -17428,6 +18976,10 @@
       <c r="B292" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C292" s="0" t="str">
+        <f aca="false">CONCATENATE(A292, ";", 1)</f>
+        <v>118665;1</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="n">
@@ -17436,6 +18988,10 @@
       <c r="B293" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C293" s="0" t="str">
+        <f aca="false">CONCATENATE(A293, ";", 1)</f>
+        <v>117345;1</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="n">
@@ -17444,6 +19000,10 @@
       <c r="B294" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C294" s="0" t="str">
+        <f aca="false">CONCATENATE(A294, ";", 1)</f>
+        <v>114272;1</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="n">
@@ -17452,6 +19012,10 @@
       <c r="B295" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C295" s="0" t="str">
+        <f aca="false">CONCATENATE(A295, ";", 1)</f>
+        <v>117888;1</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="n">
@@ -17460,6 +19024,10 @@
       <c r="B296" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C296" s="0" t="str">
+        <f aca="false">CONCATENATE(A296, ";", 1)</f>
+        <v>114476;1</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="n">
@@ -17468,6 +19036,10 @@
       <c r="B297" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C297" s="0" t="str">
+        <f aca="false">CONCATENATE(A297, ";", 1)</f>
+        <v>118570;1</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="n">
@@ -17476,6 +19048,10 @@
       <c r="B298" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C298" s="0" t="str">
+        <f aca="false">CONCATENATE(A298, ";", 1)</f>
+        <v>114339;1</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="n">
@@ -17484,6 +19060,10 @@
       <c r="B299" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C299" s="0" t="str">
+        <f aca="false">CONCATENATE(A299, ";", 1)</f>
+        <v>115434;1</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5" t="n">
@@ -17492,6 +19072,10 @@
       <c r="B300" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C300" s="0" t="str">
+        <f aca="false">CONCATENATE(A300, ";", 1)</f>
+        <v>115786;1</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="n">
@@ -17500,6 +19084,10 @@
       <c r="B301" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C301" s="0" t="str">
+        <f aca="false">CONCATENATE(A301, ";", 1)</f>
+        <v>118007;1</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="n">
@@ -17508,6 +19096,10 @@
       <c r="B302" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C302" s="0" t="str">
+        <f aca="false">CONCATENATE(A302, ";", 1)</f>
+        <v>119753;1</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="n">
@@ -17516,6 +19108,10 @@
       <c r="B303" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C303" s="0" t="str">
+        <f aca="false">CONCATENATE(A303, ";", 1)</f>
+        <v>117527;1</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="n">
@@ -17524,6 +19120,10 @@
       <c r="B304" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C304" s="0" t="str">
+        <f aca="false">CONCATENATE(A304, ";", 1)</f>
+        <v>117445;1</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5" t="n">
@@ -17532,6 +19132,10 @@
       <c r="B305" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C305" s="0" t="str">
+        <f aca="false">CONCATENATE(A305, ";", 1)</f>
+        <v>117759;1</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5" t="n">
@@ -17540,6 +19144,10 @@
       <c r="B306" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C306" s="0" t="str">
+        <f aca="false">CONCATENATE(A306, ";", 1)</f>
+        <v>115457;1</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5" t="n">
@@ -17548,6 +19156,10 @@
       <c r="B307" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C307" s="0" t="str">
+        <f aca="false">CONCATENATE(A307, ";", 1)</f>
+        <v>116157;1</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5" t="n">
@@ -17556,6 +19168,10 @@
       <c r="B308" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C308" s="0" t="str">
+        <f aca="false">CONCATENATE(A308, ";", 1)</f>
+        <v>118469;1</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="n">
@@ -17564,6 +19180,10 @@
       <c r="B309" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C309" s="0" t="str">
+        <f aca="false">CONCATENATE(A309, ";", 1)</f>
+        <v>116181;1</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="n">
@@ -17572,6 +19192,10 @@
       <c r="B310" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C310" s="0" t="str">
+        <f aca="false">CONCATENATE(A310, ";", 1)</f>
+        <v>118239;1</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="n">
@@ -17580,6 +19204,10 @@
       <c r="B311" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C311" s="0" t="str">
+        <f aca="false">CONCATENATE(A311, ";", 1)</f>
+        <v>118120;1</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="n">
@@ -17588,6 +19216,10 @@
       <c r="B312" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C312" s="0" t="str">
+        <f aca="false">CONCATENATE(A312, ";", 1)</f>
+        <v>117184;1</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="n">
@@ -17596,6 +19228,10 @@
       <c r="B313" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C313" s="0" t="str">
+        <f aca="false">CONCATENATE(A313, ";", 1)</f>
+        <v>116069;1</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="n">
@@ -17604,6 +19240,10 @@
       <c r="B314" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C314" s="0" t="str">
+        <f aca="false">CONCATENATE(A314, ";", 1)</f>
+        <v>115446;1</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="n">
@@ -17612,6 +19252,10 @@
       <c r="B315" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C315" s="0" t="str">
+        <f aca="false">CONCATENATE(A315, ";", 1)</f>
+        <v>114179;1</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="n">
@@ -17620,6 +19264,10 @@
       <c r="B316" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C316" s="0" t="str">
+        <f aca="false">CONCATENATE(A316, ";", 1)</f>
+        <v>116666;1</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="n">
@@ -17628,6 +19276,10 @@
       <c r="B317" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C317" s="0" t="str">
+        <f aca="false">CONCATENATE(A317, ";", 1)</f>
+        <v>115066;1</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="n">
@@ -17636,6 +19288,10 @@
       <c r="B318" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C318" s="0" t="str">
+        <f aca="false">CONCATENATE(A318, ";", 1)</f>
+        <v>116509;1</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="n">
@@ -17644,6 +19300,10 @@
       <c r="B319" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C319" s="0" t="str">
+        <f aca="false">CONCATENATE(A319, ";", 1)</f>
+        <v>114478;1</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="n">
@@ -17652,6 +19312,10 @@
       <c r="B320" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C320" s="0" t="str">
+        <f aca="false">CONCATENATE(A320, ";", 1)</f>
+        <v>116740;1</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="n">
@@ -17660,6 +19324,10 @@
       <c r="B321" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C321" s="0" t="str">
+        <f aca="false">CONCATENATE(A321, ";", 1)</f>
+        <v>115898;1</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="n">
@@ -17668,6 +19336,10 @@
       <c r="B322" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C322" s="0" t="str">
+        <f aca="false">CONCATENATE(A322, ";", 1)</f>
+        <v>114967;1</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="n">
@@ -17676,6 +19348,10 @@
       <c r="B323" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C323" s="0" t="str">
+        <f aca="false">CONCATENATE(A323, ";", 1)</f>
+        <v>115388;1</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="n">
@@ -17684,6 +19360,10 @@
       <c r="B324" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C324" s="0" t="str">
+        <f aca="false">CONCATENATE(A324, ";", 1)</f>
+        <v>118398;1</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
@@ -17692,6 +19372,10 @@
       <c r="B325" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C325" s="0" t="str">
+        <f aca="false">CONCATENATE(A325, ";", 1)</f>
+        <v>117571;1</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="n">
@@ -17700,6 +19384,10 @@
       <c r="B326" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C326" s="0" t="str">
+        <f aca="false">CONCATENATE(A326, ";", 1)</f>
+        <v>114074;1</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
@@ -17708,6 +19396,10 @@
       <c r="B327" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C327" s="0" t="str">
+        <f aca="false">CONCATENATE(A327, ";", 1)</f>
+        <v>115363;1</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
@@ -17716,6 +19408,10 @@
       <c r="B328" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C328" s="0" t="str">
+        <f aca="false">CONCATENATE(A328, ";", 1)</f>
+        <v>114734;1</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
@@ -17724,6 +19420,10 @@
       <c r="B329" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C329" s="0" t="str">
+        <f aca="false">CONCATENATE(A329, ";", 1)</f>
+        <v>116580;1</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
@@ -17732,6 +19432,10 @@
       <c r="B330" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C330" s="0" t="str">
+        <f aca="false">CONCATENATE(A330, ";", 1)</f>
+        <v>115950;1</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="n">
@@ -17740,6 +19444,10 @@
       <c r="B331" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C331" s="0" t="str">
+        <f aca="false">CONCATENATE(A331, ";", 1)</f>
+        <v>114267;1</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="n">
@@ -17748,6 +19456,10 @@
       <c r="B332" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C332" s="0" t="str">
+        <f aca="false">CONCATENATE(A332, ";", 1)</f>
+        <v>115106;1</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="n">
@@ -17756,6 +19468,10 @@
       <c r="B333" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C333" s="0" t="str">
+        <f aca="false">CONCATENATE(A333, ";", 1)</f>
+        <v>118670;1</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="n">
@@ -17764,6 +19480,10 @@
       <c r="B334" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C334" s="0" t="str">
+        <f aca="false">CONCATENATE(A334, ";", 1)</f>
+        <v>117350;1</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="n">
@@ -17772,6 +19492,10 @@
       <c r="B335" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C335" s="0" t="str">
+        <f aca="false">CONCATENATE(A335, ";", 1)</f>
+        <v>116664;1</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="n">
@@ -17780,6 +19504,10 @@
       <c r="B336" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C336" s="0" t="str">
+        <f aca="false">CONCATENATE(A336, ";", 1)</f>
+        <v>118342;1</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="n">
@@ -17788,6 +19516,10 @@
       <c r="B337" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C337" s="0" t="str">
+        <f aca="false">CONCATENATE(A337, ";", 1)</f>
+        <v>117477;1</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="n">
@@ -17796,6 +19528,10 @@
       <c r="B338" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C338" s="0" t="str">
+        <f aca="false">CONCATENATE(A338, ";", 1)</f>
+        <v>115246;1</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="n">
@@ -17804,6 +19540,10 @@
       <c r="B339" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C339" s="0" t="str">
+        <f aca="false">CONCATENATE(A339, ";", 1)</f>
+        <v>117803;1</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="n">
@@ -17812,6 +19552,10 @@
       <c r="B340" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C340" s="0" t="str">
+        <f aca="false">CONCATENATE(A340, ";", 1)</f>
+        <v>117670;1</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5" t="n">
@@ -17820,6 +19564,10 @@
       <c r="B341" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C341" s="0" t="str">
+        <f aca="false">CONCATENATE(A341, ";", 1)</f>
+        <v>115045;1</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5" t="n">
@@ -17828,6 +19576,10 @@
       <c r="B342" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C342" s="0" t="str">
+        <f aca="false">CONCATENATE(A342, ";", 1)</f>
+        <v>114931;1</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="n">
@@ -17836,6 +19588,10 @@
       <c r="B343" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C343" s="0" t="str">
+        <f aca="false">CONCATENATE(A343, ";", 1)</f>
+        <v>119733;1</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="n">
@@ -17844,6 +19600,10 @@
       <c r="B344" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C344" s="0" t="str">
+        <f aca="false">CONCATENATE(A344, ";", 1)</f>
+        <v>117665;1</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="n">
@@ -17852,6 +19612,10 @@
       <c r="B345" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C345" s="0" t="str">
+        <f aca="false">CONCATENATE(A345, ";", 1)</f>
+        <v>120880;1</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="n">
@@ -17860,6 +19624,10 @@
       <c r="B346" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C346" s="0" t="str">
+        <f aca="false">CONCATENATE(A346, ";", 1)</f>
+        <v>114156;1</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="n">
@@ -17868,6 +19636,10 @@
       <c r="B347" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C347" s="0" t="str">
+        <f aca="false">CONCATENATE(A347, ";", 1)</f>
+        <v>118517;1</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="n">
@@ -17876,6 +19648,10 @@
       <c r="B348" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C348" s="0" t="str">
+        <f aca="false">CONCATENATE(A348, ";", 1)</f>
+        <v>118436;1</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="n">
@@ -17884,6 +19660,10 @@
       <c r="B349" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C349" s="0" t="str">
+        <f aca="false">CONCATENATE(A349, ";", 1)</f>
+        <v>114643;1</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="n">
@@ -17892,6 +19672,10 @@
       <c r="B350" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C350" s="0" t="str">
+        <f aca="false">CONCATENATE(A350, ";", 1)</f>
+        <v>114017;1</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="n">
@@ -17900,6 +19684,10 @@
       <c r="B351" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C351" s="0" t="str">
+        <f aca="false">CONCATENATE(A351, ";", 1)</f>
+        <v>118187;1</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5" t="n">
@@ -17908,6 +19696,10 @@
       <c r="B352" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C352" s="0" t="str">
+        <f aca="false">CONCATENATE(A352, ";", 1)</f>
+        <v>118370;1</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5" t="n">
@@ -17916,6 +19708,10 @@
       <c r="B353" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C353" s="0" t="str">
+        <f aca="false">CONCATENATE(A353, ";", 1)</f>
+        <v>115616;1</v>
+      </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="n">
@@ -17924,6 +19720,10 @@
       <c r="B354" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C354" s="0" t="str">
+        <f aca="false">CONCATENATE(A354, ";", 1)</f>
+        <v>114625;1</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5" t="n">
@@ -17932,6 +19732,10 @@
       <c r="B355" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C355" s="0" t="str">
+        <f aca="false">CONCATENATE(A355, ";", 1)</f>
+        <v>116987;1</v>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5" t="n">
@@ -17940,6 +19744,10 @@
       <c r="B356" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C356" s="0" t="str">
+        <f aca="false">CONCATENATE(A356, ";", 1)</f>
+        <v>120877;1</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5" t="n">
@@ -17948,6 +19756,10 @@
       <c r="B357" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C357" s="0" t="str">
+        <f aca="false">CONCATENATE(A357, ";", 1)</f>
+        <v>117272;1</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5" t="n">
@@ -17956,6 +19768,10 @@
       <c r="B358" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C358" s="0" t="str">
+        <f aca="false">CONCATENATE(A358, ";", 1)</f>
+        <v>115801;1</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5" t="n">
@@ -17964,6 +19780,10 @@
       <c r="B359" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C359" s="0" t="str">
+        <f aca="false">CONCATENATE(A359, ";", 1)</f>
+        <v>117753;1</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5" t="n">
@@ -17972,6 +19792,10 @@
       <c r="B360" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C360" s="0" t="str">
+        <f aca="false">CONCATENATE(A360, ";", 1)</f>
+        <v>115533;1</v>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5" t="n">
@@ -17980,6 +19804,10 @@
       <c r="B361" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C361" s="0" t="str">
+        <f aca="false">CONCATENATE(A361, ";", 1)</f>
+        <v>115024;1</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5" t="n">
@@ -17988,6 +19816,10 @@
       <c r="B362" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C362" s="0" t="str">
+        <f aca="false">CONCATENATE(A362, ";", 1)</f>
+        <v>116875;1</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5" t="n">
@@ -17996,6 +19828,10 @@
       <c r="B363" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C363" s="0" t="str">
+        <f aca="false">CONCATENATE(A363, ";", 1)</f>
+        <v>117633;1</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5" t="n">
@@ -18004,6 +19840,10 @@
       <c r="B364" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C364" s="0" t="str">
+        <f aca="false">CONCATENATE(A364, ";", 1)</f>
+        <v>116778;1</v>
+      </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5" t="n">
@@ -18012,6 +19852,10 @@
       <c r="B365" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C365" s="0" t="str">
+        <f aca="false">CONCATENATE(A365, ";", 1)</f>
+        <v>116421;1</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5" t="n">
@@ -18020,6 +19864,10 @@
       <c r="B366" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C366" s="0" t="str">
+        <f aca="false">CONCATENATE(A366, ";", 1)</f>
+        <v>114855;1</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5" t="n">
@@ -18028,6 +19876,10 @@
       <c r="B367" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C367" s="0" t="str">
+        <f aca="false">CONCATENATE(A367, ";", 1)</f>
+        <v>120834;1</v>
+      </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5" t="n">
@@ -18036,6 +19888,10 @@
       <c r="B368" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C368" s="0" t="str">
+        <f aca="false">CONCATENATE(A368, ";", 1)</f>
+        <v>116960;1</v>
+      </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5" t="n">
@@ -18044,6 +19900,10 @@
       <c r="B369" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C369" s="0" t="str">
+        <f aca="false">CONCATENATE(A369, ";", 1)</f>
+        <v>116931;1</v>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5" t="n">
@@ -18052,6 +19912,10 @@
       <c r="B370" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C370" s="0" t="str">
+        <f aca="false">CONCATENATE(A370, ";", 1)</f>
+        <v>116906;1</v>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5" t="n">
@@ -18060,6 +19924,10 @@
       <c r="B371" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C371" s="0" t="str">
+        <f aca="false">CONCATENATE(A371, ";", 1)</f>
+        <v>118583;1</v>
+      </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5" t="n">
@@ -18068,6 +19936,10 @@
       <c r="B372" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C372" s="0" t="str">
+        <f aca="false">CONCATENATE(A372, ";", 1)</f>
+        <v>118662;1</v>
+      </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5" t="n">
@@ -18076,6 +19948,10 @@
       <c r="B373" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C373" s="0" t="str">
+        <f aca="false">CONCATENATE(A373, ";", 1)</f>
+        <v>117634;1</v>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5" t="n">
@@ -18084,6 +19960,10 @@
       <c r="B374" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C374" s="0" t="str">
+        <f aca="false">CONCATENATE(A374, ";", 1)</f>
+        <v>115889;1</v>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5" t="n">
@@ -18092,6 +19972,10 @@
       <c r="B375" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C375" s="0" t="str">
+        <f aca="false">CONCATENATE(A375, ";", 1)</f>
+        <v>116279;1</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
@@ -18100,6 +19984,10 @@
       <c r="B376" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C376" s="0" t="str">
+        <f aca="false">CONCATENATE(A376, ";", 1)</f>
+        <v>116193;1</v>
+      </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5" t="n">
@@ -18108,6 +19996,10 @@
       <c r="B377" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C377" s="0" t="str">
+        <f aca="false">CONCATENATE(A377, ";", 1)</f>
+        <v>117038;1</v>
+      </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
@@ -18116,6 +20008,10 @@
       <c r="B378" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C378" s="0" t="str">
+        <f aca="false">CONCATENATE(A378, ";", 1)</f>
+        <v>117045;1</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
@@ -18124,6 +20020,10 @@
       <c r="B379" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C379" s="0" t="str">
+        <f aca="false">CONCATENATE(A379, ";", 1)</f>
+        <v>116654;1</v>
+      </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
@@ -18131,6 +20031,10 @@
       </c>
       <c r="B380" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="C380" s="0" t="str">
+        <f aca="false">CONCATENATE(A380, ";", 1)</f>
+        <v>116921;1</v>
       </c>
     </row>
   </sheetData>
